--- a/Traduzido/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2567B314-D8C3-4844-A04C-7FE847DAAFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1CDE54-0DEB-4AD1-85BE-F1BDCC084D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="915" windowWidth="13710" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -892,9 +892,6 @@
     <t>Instant Height: &lt;b&gt;Shift + Click&lt;/b&gt;</t>
   </si>
   <si>
-    <t>一括変更:  &lt;b&gt;Shift + クリック&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>guild_title</t>
   </si>
   <si>
@@ -1340,6 +1337,9 @@
   </si>
   <si>
     <t>Ba～rril♪,Barril!,Barri~l!,Barril.</t>
+  </si>
+  <si>
+    <t>一括変更:&lt;b&gt;Shift + クリック&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -1720,8 +1720,8 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1770,10 +1770,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1787,10 +1787,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1804,10 +1804,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1821,10 +1821,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1838,10 +1838,10 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1855,10 +1855,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1872,10 +1872,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -1889,10 +1889,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -1906,13 +1906,13 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -1926,10 +1926,10 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -1943,13 +1943,13 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -1963,13 +1963,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -1983,13 +1983,13 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -2003,13 +2003,13 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -2023,13 +2023,13 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -2043,13 +2043,13 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
@@ -2063,13 +2063,13 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -2083,13 +2083,13 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -2103,7 +2103,7 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -2123,13 +2123,13 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -2143,13 +2143,13 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
@@ -2163,7 +2163,7 @@
         <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -2183,13 +2183,13 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -2203,13 +2203,13 @@
         <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
@@ -2223,13 +2223,13 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E28" t="s">
         <v>81</v>
@@ -2243,13 +2243,13 @@
         <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E29" t="s">
         <v>84</v>
@@ -2263,13 +2263,13 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
         <v>87</v>
@@ -2283,13 +2283,13 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
@@ -2303,13 +2303,13 @@
         <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E32" t="s">
         <v>93</v>
@@ -2323,13 +2323,13 @@
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E33" t="s">
         <v>96</v>
@@ -2343,13 +2343,13 @@
         <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E34" t="s">
         <v>99</v>
@@ -2363,13 +2363,13 @@
         <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E35" t="s">
         <v>102</v>
@@ -2383,13 +2383,13 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E36" t="s">
         <v>105</v>
@@ -2403,13 +2403,13 @@
         <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -2423,10 +2423,10 @@
         <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E38" t="s">
         <v>111</v>
@@ -2440,10 +2440,10 @@
         <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E39" t="s">
         <v>114</v>
@@ -2457,10 +2457,10 @@
         <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E40" t="s">
         <v>117</v>
@@ -2474,10 +2474,10 @@
         <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E41" t="s">
         <v>120</v>
@@ -2491,10 +2491,10 @@
         <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
         <v>123</v>
@@ -2508,10 +2508,10 @@
         <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E43" t="s">
         <v>126</v>
@@ -2525,10 +2525,10 @@
         <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E44" t="s">
         <v>129</v>
@@ -2542,10 +2542,10 @@
         <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E45" t="s">
         <v>132</v>
@@ -2559,10 +2559,10 @@
         <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E46" t="s">
         <v>135</v>
@@ -2576,7 +2576,7 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2593,7 +2593,7 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2610,10 +2610,10 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E49" t="s">
         <v>144</v>
@@ -2627,10 +2627,10 @@
         <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E50" t="s">
         <v>147</v>
@@ -2644,10 +2644,10 @@
         <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D51" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -2661,10 +2661,10 @@
         <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D52" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E52" t="s">
         <v>153</v>
@@ -2678,10 +2678,10 @@
         <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E53" t="s">
         <v>156</v>
@@ -2695,13 +2695,13 @@
         <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C54" t="s">
         <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E54" t="s">
         <v>160</v>
@@ -2715,13 +2715,13 @@
         <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C55" t="s">
         <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E55" t="s">
         <v>163</v>
@@ -2735,13 +2735,13 @@
         <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C56" t="s">
         <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E56" t="s">
         <v>166</v>
@@ -2755,13 +2755,13 @@
         <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C57" t="s">
         <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E57" t="s">
         <v>169</v>
@@ -2775,13 +2775,13 @@
         <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C58" t="s">
         <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E58" t="s">
         <v>172</v>
@@ -2795,13 +2795,13 @@
         <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C59" t="s">
         <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E59" t="s">
         <v>175</v>
@@ -2815,13 +2815,13 @@
         <v>177</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C60" t="s">
         <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E60" t="s">
         <v>178</v>
@@ -2835,13 +2835,13 @@
         <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C61" t="s">
         <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E61" t="s">
         <v>181</v>
@@ -2855,13 +2855,13 @@
         <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C62" t="s">
         <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E62" t="s">
         <v>184</v>
@@ -2875,13 +2875,13 @@
         <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C63" t="s">
         <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E63" t="s">
         <v>187</v>
@@ -2895,13 +2895,13 @@
         <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C64" t="s">
         <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E64" t="s">
         <v>190</v>
@@ -2915,13 +2915,13 @@
         <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C65" t="s">
         <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E65" t="s">
         <v>193</v>
@@ -2935,13 +2935,13 @@
         <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C66" t="s">
         <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E66" t="s">
         <v>196</v>
@@ -2955,13 +2955,13 @@
         <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C67" t="s">
         <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E67" t="s">
         <v>199</v>
@@ -2975,13 +2975,13 @@
         <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C68" t="s">
         <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E68" t="s">
         <v>202</v>
@@ -2995,13 +2995,13 @@
         <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C69" t="s">
         <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E69" t="s">
         <v>205</v>
@@ -3015,13 +3015,13 @@
         <v>207</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C70" t="s">
         <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E70" t="s">
         <v>205</v>
@@ -3035,13 +3035,13 @@
         <v>208</v>
       </c>
       <c r="B71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C71" t="s">
         <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E71" t="s">
         <v>209</v>
@@ -3055,13 +3055,13 @@
         <v>211</v>
       </c>
       <c r="B72" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C72" t="s">
         <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E72" t="s">
         <v>212</v>
@@ -3075,13 +3075,13 @@
         <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C73" t="s">
         <v>159</v>
       </c>
       <c r="D73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E73" t="s">
         <v>215</v>
@@ -3095,13 +3095,13 @@
         <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C74" t="s">
         <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E74" t="s">
         <v>218</v>
@@ -3115,10 +3115,10 @@
         <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E75" t="s">
         <v>221</v>
@@ -3132,10 +3132,10 @@
         <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D76" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E76" t="s">
         <v>224</v>
@@ -3149,10 +3149,10 @@
         <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D77" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E77" t="s">
         <v>227</v>
@@ -3166,10 +3166,10 @@
         <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D78" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E78" t="s">
         <v>230</v>
@@ -3183,10 +3183,10 @@
         <v>232</v>
       </c>
       <c r="B79" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D79" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E79" t="s">
         <v>233</v>
@@ -3200,10 +3200,10 @@
         <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D80" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E80" t="s">
         <v>236</v>
@@ -3217,10 +3217,10 @@
         <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D81" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E81" t="s">
         <v>239</v>
@@ -3234,10 +3234,10 @@
         <v>241</v>
       </c>
       <c r="B82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D82" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E82" t="s">
         <v>242</v>
@@ -3251,10 +3251,10 @@
         <v>244</v>
       </c>
       <c r="B83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D83" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E83" t="s">
         <v>245</v>
@@ -3268,10 +3268,10 @@
         <v>247</v>
       </c>
       <c r="B84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D84" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E84" t="s">
         <v>248</v>
@@ -3285,10 +3285,10 @@
         <v>250</v>
       </c>
       <c r="B85" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D85" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E85" t="s">
         <v>251</v>
@@ -3302,10 +3302,10 @@
         <v>253</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D86" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E86" t="s">
         <v>254</v>
@@ -3319,10 +3319,10 @@
         <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D87" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E87" t="s">
         <v>257</v>
@@ -3336,10 +3336,10 @@
         <v>259</v>
       </c>
       <c r="B88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D88" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E88" t="s">
         <v>260</v>
@@ -3353,10 +3353,10 @@
         <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E89" t="s">
         <v>263</v>
@@ -3370,10 +3370,10 @@
         <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D90" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E90" t="s">
         <v>266</v>
@@ -3387,10 +3387,10 @@
         <v>268</v>
       </c>
       <c r="B91" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D91" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E91" t="s">
         <v>269</v>
@@ -3404,10 +3404,10 @@
         <v>271</v>
       </c>
       <c r="B92" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D92" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E92" t="s">
         <v>272</v>
@@ -3421,10 +3421,10 @@
         <v>274</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E93" t="s">
         <v>275</v>
@@ -3438,10 +3438,10 @@
         <v>277</v>
       </c>
       <c r="B94" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D94" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E94" t="s">
         <v>278</v>
@@ -3455,10 +3455,10 @@
         <v>280</v>
       </c>
       <c r="B95" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D95" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E95" t="s">
         <v>281</v>
@@ -3472,10 +3472,10 @@
         <v>283</v>
       </c>
       <c r="B96" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D96" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E96" t="s">
         <v>284</v>
@@ -3489,172 +3489,172 @@
         <v>286</v>
       </c>
       <c r="B97" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C97" t="s">
         <v>287</v>
       </c>
       <c r="D97" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
       </c>
       <c r="F97" t="s">
-        <v>289</v>
+        <v>438</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>289</v>
+      </c>
+      <c r="B98" t="s">
+        <v>324</v>
+      </c>
+      <c r="D98" t="s">
+        <v>426</v>
+      </c>
+      <c r="E98" t="s">
         <v>290</v>
       </c>
-      <c r="B98" t="s">
-        <v>325</v>
-      </c>
-      <c r="D98" t="s">
-        <v>427</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>291</v>
-      </c>
-      <c r="F98" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" t="s">
+        <v>324</v>
+      </c>
+      <c r="D99" t="s">
+        <v>427</v>
+      </c>
+      <c r="E99" t="s">
         <v>293</v>
       </c>
-      <c r="B99" t="s">
-        <v>325</v>
-      </c>
-      <c r="D99" t="s">
-        <v>428</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>294</v>
-      </c>
-      <c r="F99" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>295</v>
+      </c>
+      <c r="B100" t="s">
+        <v>324</v>
+      </c>
+      <c r="D100" t="s">
         <v>296</v>
       </c>
-      <c r="B100" t="s">
-        <v>325</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
+        <v>296</v>
+      </c>
+      <c r="F100" t="s">
         <v>297</v>
-      </c>
-      <c r="E100" t="s">
-        <v>297</v>
-      </c>
-      <c r="F100" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" t="s">
+        <v>334</v>
+      </c>
+      <c r="D101" t="s">
+        <v>428</v>
+      </c>
+      <c r="E101" t="s">
         <v>299</v>
       </c>
-      <c r="B101" t="s">
-        <v>335</v>
-      </c>
-      <c r="D101" t="s">
-        <v>429</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>300</v>
-      </c>
-      <c r="F101" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" t="s">
+        <v>332</v>
+      </c>
+      <c r="D102" t="s">
+        <v>429</v>
+      </c>
+      <c r="E102" t="s">
         <v>302</v>
       </c>
-      <c r="B102" t="s">
-        <v>333</v>
-      </c>
-      <c r="D102" t="s">
-        <v>430</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>303</v>
-      </c>
-      <c r="F102" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>304</v>
+      </c>
+      <c r="B103" t="s">
+        <v>335</v>
+      </c>
+      <c r="D103" t="s">
+        <v>430</v>
+      </c>
+      <c r="E103" t="s">
         <v>305</v>
       </c>
-      <c r="B103" t="s">
-        <v>336</v>
-      </c>
-      <c r="D103" t="s">
-        <v>431</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>306</v>
-      </c>
-      <c r="F103" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>307</v>
+      </c>
+      <c r="B104" t="s">
+        <v>336</v>
+      </c>
+      <c r="D104" t="s">
+        <v>431</v>
+      </c>
+      <c r="E104" t="s">
         <v>308</v>
       </c>
-      <c r="B104" t="s">
-        <v>337</v>
-      </c>
-      <c r="D104" t="s">
-        <v>432</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>309</v>
-      </c>
-      <c r="F104" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>310</v>
+      </c>
+      <c r="B105" t="s">
+        <v>336</v>
+      </c>
+      <c r="D105" t="s">
+        <v>432</v>
+      </c>
+      <c r="E105" t="s">
         <v>311</v>
       </c>
-      <c r="B105" t="s">
-        <v>337</v>
-      </c>
-      <c r="D105" t="s">
-        <v>433</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>312</v>
-      </c>
-      <c r="F105" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>433</v>
+      </c>
+      <c r="B106" t="s">
         <v>434</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
+        <v>437</v>
+      </c>
+      <c r="E106" t="s">
         <v>435</v>
       </c>
-      <c r="D106" t="s">
-        <v>438</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>436</v>
-      </c>
-      <c r="F106" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/Traduzido/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1CDE54-0DEB-4AD1-85BE-F1BDCC084D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D757104-D328-48EB-8F44-57C557BE20A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="440">
   <si>
     <t>id</t>
   </si>
@@ -1051,12 +1051,6 @@
     <t>menina,menina,menino</t>
   </si>
   <si>
-    <t>irmão,irm,rapaz</t>
-  </si>
-  <si>
-    <t>irmã,irm,sogra</t>
-  </si>
-  <si>
     <t>Aleatório,Criança,Jovem,Adulto,Idoso</t>
   </si>
   <si>
@@ -1340,6 +1334,15 @@
   </si>
   <si>
     <t>一括変更:&lt;b&gt;Shift + クリック&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">um(a) ,um(a) </t>
+  </si>
+  <si>
+    <t>irmão,irmão,rapaz</t>
+  </si>
+  <si>
+    <t>irmã,irmã,garota</t>
   </si>
 </sst>
 </file>
@@ -1719,9 +1722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1762,7 @@
         <v>313</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>437</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1858,7 +1861,7 @@
         <v>316</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1875,7 +1878,7 @@
         <v>316</v>
       </c>
       <c r="D10" t="s">
-        <v>343</v>
+        <v>439</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -1892,7 +1895,7 @@
         <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -1912,7 +1915,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -1929,7 +1932,7 @@
         <v>317</v>
       </c>
       <c r="D13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -1949,7 +1952,7 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -1969,7 +1972,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -1989,7 +1992,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -2009,7 +2012,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -2029,7 +2032,7 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -2049,7 +2052,7 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
@@ -2069,7 +2072,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -2089,7 +2092,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -2129,7 +2132,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -2149,7 +2152,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
@@ -2189,7 +2192,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -2209,7 +2212,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
@@ -2229,7 +2232,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E28" t="s">
         <v>81</v>
@@ -2249,7 +2252,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E29" t="s">
         <v>84</v>
@@ -2269,7 +2272,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E30" t="s">
         <v>87</v>
@@ -2289,7 +2292,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
@@ -2309,7 +2312,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E32" t="s">
         <v>93</v>
@@ -2329,7 +2332,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E33" t="s">
         <v>96</v>
@@ -2349,7 +2352,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E34" t="s">
         <v>99</v>
@@ -2369,7 +2372,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E35" t="s">
         <v>102</v>
@@ -2389,7 +2392,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E36" t="s">
         <v>105</v>
@@ -2409,7 +2412,7 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -2426,7 +2429,7 @@
         <v>314</v>
       </c>
       <c r="D38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E38" t="s">
         <v>111</v>
@@ -2443,7 +2446,7 @@
         <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E39" t="s">
         <v>114</v>
@@ -2460,7 +2463,7 @@
         <v>314</v>
       </c>
       <c r="D40" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E40" t="s">
         <v>117</v>
@@ -2477,7 +2480,7 @@
         <v>314</v>
       </c>
       <c r="D41" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E41" t="s">
         <v>120</v>
@@ -2494,7 +2497,7 @@
         <v>314</v>
       </c>
       <c r="D42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E42" t="s">
         <v>123</v>
@@ -2511,7 +2514,7 @@
         <v>314</v>
       </c>
       <c r="D43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E43" t="s">
         <v>126</v>
@@ -2528,7 +2531,7 @@
         <v>314</v>
       </c>
       <c r="D44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E44" t="s">
         <v>129</v>
@@ -2545,7 +2548,7 @@
         <v>314</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E45" t="s">
         <v>132</v>
@@ -2562,7 +2565,7 @@
         <v>314</v>
       </c>
       <c r="D46" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E46" t="s">
         <v>135</v>
@@ -2613,7 +2616,7 @@
         <v>323</v>
       </c>
       <c r="D49" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E49" t="s">
         <v>144</v>
@@ -2630,7 +2633,7 @@
         <v>324</v>
       </c>
       <c r="D50" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E50" t="s">
         <v>147</v>
@@ -2647,7 +2650,7 @@
         <v>324</v>
       </c>
       <c r="D51" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -2664,7 +2667,7 @@
         <v>325</v>
       </c>
       <c r="D52" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E52" t="s">
         <v>153</v>
@@ -2681,7 +2684,7 @@
         <v>314</v>
       </c>
       <c r="D53" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E53" t="s">
         <v>156</v>
@@ -2701,7 +2704,7 @@
         <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E54" t="s">
         <v>160</v>
@@ -2721,7 +2724,7 @@
         <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E55" t="s">
         <v>163</v>
@@ -2741,7 +2744,7 @@
         <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E56" t="s">
         <v>166</v>
@@ -2761,7 +2764,7 @@
         <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E57" t="s">
         <v>169</v>
@@ -2781,7 +2784,7 @@
         <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E58" t="s">
         <v>172</v>
@@ -2801,7 +2804,7 @@
         <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E59" t="s">
         <v>175</v>
@@ -2821,7 +2824,7 @@
         <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E60" t="s">
         <v>178</v>
@@ -2841,7 +2844,7 @@
         <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E61" t="s">
         <v>181</v>
@@ -2861,7 +2864,7 @@
         <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E62" t="s">
         <v>184</v>
@@ -2881,7 +2884,7 @@
         <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E63" t="s">
         <v>187</v>
@@ -2901,7 +2904,7 @@
         <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E64" t="s">
         <v>190</v>
@@ -2921,7 +2924,7 @@
         <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E65" t="s">
         <v>193</v>
@@ -2941,7 +2944,7 @@
         <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E66" t="s">
         <v>196</v>
@@ -2961,7 +2964,7 @@
         <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E67" t="s">
         <v>199</v>
@@ -2981,7 +2984,7 @@
         <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E68" t="s">
         <v>202</v>
@@ -3001,7 +3004,7 @@
         <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E69" t="s">
         <v>205</v>
@@ -3021,7 +3024,7 @@
         <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E70" t="s">
         <v>205</v>
@@ -3041,7 +3044,7 @@
         <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E71" t="s">
         <v>209</v>
@@ -3061,7 +3064,7 @@
         <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E72" t="s">
         <v>212</v>
@@ -3081,7 +3084,7 @@
         <v>159</v>
       </c>
       <c r="D73" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E73" t="s">
         <v>215</v>
@@ -3101,7 +3104,7 @@
         <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E74" t="s">
         <v>218</v>
@@ -3118,7 +3121,7 @@
         <v>327</v>
       </c>
       <c r="D75" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E75" t="s">
         <v>221</v>
@@ -3135,7 +3138,7 @@
         <v>316</v>
       </c>
       <c r="D76" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E76" t="s">
         <v>224</v>
@@ -3152,7 +3155,7 @@
         <v>318</v>
       </c>
       <c r="D77" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E77" t="s">
         <v>227</v>
@@ -3169,7 +3172,7 @@
         <v>318</v>
       </c>
       <c r="D78" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E78" t="s">
         <v>230</v>
@@ -3186,7 +3189,7 @@
         <v>318</v>
       </c>
       <c r="D79" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E79" t="s">
         <v>233</v>
@@ -3203,7 +3206,7 @@
         <v>325</v>
       </c>
       <c r="D80" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E80" t="s">
         <v>236</v>
@@ -3220,7 +3223,7 @@
         <v>325</v>
       </c>
       <c r="D81" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E81" t="s">
         <v>239</v>
@@ -3237,7 +3240,7 @@
         <v>325</v>
       </c>
       <c r="D82" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E82" t="s">
         <v>242</v>
@@ -3254,7 +3257,7 @@
         <v>325</v>
       </c>
       <c r="D83" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E83" t="s">
         <v>245</v>
@@ -3271,7 +3274,7 @@
         <v>325</v>
       </c>
       <c r="D84" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E84" t="s">
         <v>248</v>
@@ -3288,7 +3291,7 @@
         <v>325</v>
       </c>
       <c r="D85" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E85" t="s">
         <v>251</v>
@@ -3305,7 +3308,7 @@
         <v>325</v>
       </c>
       <c r="D86" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E86" t="s">
         <v>254</v>
@@ -3322,7 +3325,7 @@
         <v>325</v>
       </c>
       <c r="D87" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E87" t="s">
         <v>257</v>
@@ -3339,7 +3342,7 @@
         <v>325</v>
       </c>
       <c r="D88" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E88" t="s">
         <v>260</v>
@@ -3356,7 +3359,7 @@
         <v>325</v>
       </c>
       <c r="D89" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E89" t="s">
         <v>263</v>
@@ -3373,7 +3376,7 @@
         <v>325</v>
       </c>
       <c r="D90" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E90" t="s">
         <v>266</v>
@@ -3390,7 +3393,7 @@
         <v>325</v>
       </c>
       <c r="D91" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E91" t="s">
         <v>269</v>
@@ -3407,7 +3410,7 @@
         <v>319</v>
       </c>
       <c r="D92" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E92" t="s">
         <v>272</v>
@@ -3424,7 +3427,7 @@
         <v>319</v>
       </c>
       <c r="D93" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E93" t="s">
         <v>275</v>
@@ -3441,7 +3444,7 @@
         <v>327</v>
       </c>
       <c r="D94" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E94" t="s">
         <v>278</v>
@@ -3458,7 +3461,7 @@
         <v>327</v>
       </c>
       <c r="D95" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E95" t="s">
         <v>281</v>
@@ -3475,7 +3478,7 @@
         <v>333</v>
       </c>
       <c r="D96" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E96" t="s">
         <v>284</v>
@@ -3495,13 +3498,13 @@
         <v>287</v>
       </c>
       <c r="D97" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
       </c>
       <c r="F97" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3512,7 +3515,7 @@
         <v>324</v>
       </c>
       <c r="D98" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E98" t="s">
         <v>290</v>
@@ -3529,7 +3532,7 @@
         <v>324</v>
       </c>
       <c r="D99" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E99" t="s">
         <v>293</v>
@@ -3563,7 +3566,7 @@
         <v>334</v>
       </c>
       <c r="D101" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E101" t="s">
         <v>299</v>
@@ -3580,7 +3583,7 @@
         <v>332</v>
       </c>
       <c r="D102" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E102" t="s">
         <v>302</v>
@@ -3597,7 +3600,7 @@
         <v>335</v>
       </c>
       <c r="D103" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E103" t="s">
         <v>305</v>
@@ -3614,7 +3617,7 @@
         <v>336</v>
       </c>
       <c r="D104" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E104" t="s">
         <v>308</v>
@@ -3631,7 +3634,7 @@
         <v>336</v>
       </c>
       <c r="D105" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E105" t="s">
         <v>311</v>
@@ -3642,19 +3645,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>431</v>
+      </c>
+      <c r="B106" t="s">
+        <v>432</v>
+      </c>
+      <c r="D106" t="s">
+        <v>435</v>
+      </c>
+      <c r="E106" t="s">
         <v>433</v>
       </c>
-      <c r="B106" t="s">
+      <c r="F106" t="s">
         <v>434</v>
-      </c>
-      <c r="D106" t="s">
-        <v>437</v>
-      </c>
-      <c r="E106" t="s">
-        <v>435</v>
-      </c>
-      <c r="F106" t="s">
-        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/Traduzido/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D757104-D328-48EB-8F44-57C557BE20A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0A784A-C8DF-45D9-BC01-8D713224AF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="445">
   <si>
     <t>id</t>
   </si>
@@ -1036,288 +1036,24 @@
     <t>EA 23.94</t>
   </si>
   <si>
-    <t>Janeiro,Fevereiro,Março,Abril,Maio,Junho,Julho,Agosto,Setembro,Outubro,Novembro,Dezembro</t>
-  </si>
-  <si>
-    <t>Primavera,Verão,Outono,Inverno</t>
-  </si>
-  <si>
-    <t>Prim,Ver,Out,Inv</t>
-  </si>
-  <si>
-    <t>???,Feminino,Masculino</t>
-  </si>
-  <si>
-    <t>menina,menina,menino</t>
-  </si>
-  <si>
-    <t>Aleatório,Criança,Jovem,Adulto,Idoso</t>
-  </si>
-  <si>
-    <t>...,Umimyaa,Eu não consigo dormir esta noite</t>
-  </si>
-  <si>
-    <t>Inimigo,Odeio,Enjoado,Normal,Aprovado,Amigável,Respeitado,Íntimo,Afetuoso,*Amor*,*Amor Amor*</t>
-  </si>
-  <si>
-    <t>potion de manchas,potion nublada,potion clara,potion turva,potion pálida,potion pegajosa,potion borbulhante</t>
-  </si>
-  <si>
-    <t>antigo pergaminho,estranho pergaminho,pergaminho rúnico,pergaminho longo,pergaminho rasgado</t>
-  </si>
-  <si>
-    <t>livro suspeito,livro fino,livro leve,livro atraente,livro chamativo,livro brilhante,livro preocupante,livro majestoso,livro pesado</t>
-  </si>
-  <si>
-    <t>antigo tomo,estranho tomo,tomo rúnico,tomo grosso,tomo majestoso</t>
-  </si>
-  <si>
-    <t>vara curta,vara longa,vara torta,vara grossa,vara fina,vara pesada,vara estranha,vara elegante,vara simples</t>
-  </si>
-  <si>
-    <t>armadilha desconhecida</t>
-  </si>
-  <si>
-    <t>*croc*,*arranhar*,*beijinho*,*baque*,*golpe*</t>
-  </si>
-  <si>
-    <t>*ping*,*gole*,*chuvisco*,*splash*,*beijo*</t>
-  </si>
-  <si>
-    <t>Desigual,Formidável,Justo,Fácil,Muito fácil</t>
-  </si>
-  <si>
-    <t>golpe(s),golpe(s),golpe(s),golpe(s)</t>
-  </si>
-  <si>
-    <t>esmaga(s),esmaga(s),esmaga(s),esmaga(s)</t>
-  </si>
-  <si>
-    <t>zapa(s),zapa(s),zapa(s),zapa(s)</t>
-  </si>
-  <si>
-    <t>fogo(s) em,fogo(s) em,fogo(s) em,fogo(s) em</t>
-  </si>
-  <si>
-    <t>atirar(s),atirar(s),atirar(s),atirar(s)</t>
-  </si>
-  <si>
-    <t>soco(s),soco(s),soco(s),soco(s),mão</t>
-  </si>
-  <si>
-    <t>chute(s),chute(s),chute(s),chute(s),perna</t>
-  </si>
-  <si>
-    <t>garra(s),garra(s),garra(s),garra(s),garra</t>
-  </si>
-  <si>
-    <t>morde(s),morde(s),morde(s),morde(s),presa</t>
-  </si>
-  <si>
-    <t>espalha(s) esporos em,espalha(s) esporos em,espalha(s) esporos em,espalha(s) esporos em,esporos</t>
-  </si>
-  <si>
-    <t>olhar(s),olhar(s),olhar(s),olhar(s),olho</t>
-  </si>
-  <si>
-    <t>pica(s),pica(s),pica(s),pica(s),agulha</t>
-  </si>
-  <si>
-    <t>toque(s),toque(s),toque(s),toque(s),mão</t>
-  </si>
-  <si>
-    <t>Fácil,Normal,Difícil,Impossível</t>
-  </si>
-  <si>
-    <t>Enraivecido,Desagradado,Sombrio,Calmo,Satisfeito,Encantado,Feliz</t>
-  </si>
-  <si>
     <t>Campos</t>
   </si>
   <si>
     <t>Floresta</t>
   </si>
   <si>
-    <t>Praia</t>
-  </si>
-  <si>
     <t>Montanha</t>
   </si>
   <si>
-    <t>Campo de Neve</t>
-  </si>
-  <si>
     <t>Oceano</t>
   </si>
   <si>
     <t>Sala</t>
   </si>
   <si>
-    <t>conhecido,vizinho,amigo,gato,cachorro,leão marinho glutão,putit,colega de trabalho,frango,pets</t>
-  </si>
-  <si>
-    <t>amigo,pai,mãe,namorado(a),irmã,irmão,mulher,chefe,noiva,querido(a),mãe,pai,gato,criança</t>
-  </si>
-  <si>
-    <t>amigo,tycoon,nobre,mercador,escritor,aventureiro,mercador negro,negociante</t>
-  </si>
-  <si>
-    <t>Nenhum,Normal,Forte,Excepcional,Imunidade,Imunidade+</t>
-  </si>
-  <si>
-    <t>Nenhum,Fraqueza,Defeito</t>
-  </si>
-  <si>
-    <t>Escolha um gênero,,,Lista de gêneros</t>
-  </si>
-  <si>
-    <t>Escolha uma classe,,,Lista de classes</t>
-  </si>
-  <si>
-    <t>Escolha uma raça,,,Lista de raças</t>
-  </si>
-  <si>
-    <t>Escolha um apelido,,,Lista de apelidos</t>
-  </si>
-  <si>
-    <t>Escolha uma faixa etária,,,Lista de faixas etárias</t>
-  </si>
-  <si>
-    <t>Escolha um prólogo,,,Lista de prólogos</t>
-  </si>
-  <si>
-    <t>Escolha uma localização de portal,,,Nome do Local</t>
-  </si>
-  <si>
-    <t>Escolha um local de retorno,,,Nome do Local,Nível de retorno</t>
-  </si>
-  <si>
-    <t>Escolha um encantamento para extrair,,,Nome do encantamento,Nível</t>
-  </si>
-  <si>
-    <t>Escolha uma habilidade para treinar,,,Nome da habilidade,Custo em Moeda de Platina</t>
-  </si>
-  <si>
-    <t>Escolha uma receita,,,Nome da receita,Propriedade,Habilidade de fabricação</t>
-  </si>
-  <si>
-    <t>Escolha um escravo,,,Nome da criatura,Preço,Trabalho</t>
-  </si>
-  <si>
-    <t>Escolha um aliado para reviver,,,Nome do aliado,Preço,Classe</t>
-  </si>
-  <si>
-    <t>Escolha um aliado para chamar,,,Nome do aliado,Interação,Classe</t>
-  </si>
-  <si>
-    <t>,,,Nome do aliado,Interação,Informação</t>
-  </si>
-  <si>
-    <t>,,,Nome do aliado,Nota</t>
-  </si>
-  <si>
-    <t>Escolha uma música,,,Nome da música,Interação</t>
-  </si>
-  <si>
-    <t>Playlist atual,,,Nome da música,Interação</t>
-  </si>
-  <si>
-    <t>Músicas na memória,,,Nome da música,Interação</t>
-  </si>
-  <si>
-    <t>Escolha um destino de viagem rápida,,,Nome do destino,Dias,Ração necessária</t>
-  </si>
-  <si>
-    <t>Caranguejo Rei,Atum Rabilho,Lagosta Espinhosa,Clam Oriental Comum,Ouriço do Mar,Peixe Pepino do Mar</t>
-  </si>
-  <si>
-    <t>Miau miau miau!,Miau miau!,Mewew.,Chato.,Cuidado!,(Pssst...)</t>
-  </si>
-  <si>
-    <t>Libere-os...!,Nossas espadas...!,Minha espada...!,Meu amigo...,Minha alma...,Minha honra...,Por favor... a espada...,Esperamos tanto tempo...,Minha espada que foi amarrada por ele...,Minha espada que foi roubada por ele...,Minha espada...,A espada...,Você...libertou minha espada...?,Quem é...?</t>
-  </si>
-  <si>
-    <t>estúpido,fraco,legal,favorito da madame,encantado,maníaco,estimado,magistral,real,obra-prima,celestial,divino</t>
-  </si>
-  <si>
-    <t>Manuscrito Voynich,Cantos Dhol,Escritura Ponape,Revelações de Glaaki,Fragmentos de G'harne,Liber Damnatus,Livro de Dzyan,Livro de Eibon,Grande Grimório,Fragmentos de Celaeno,Necronomicon,O Texto de R'lyeh,Fragmentos de Eltdown,O Ramos de Ouro,Apocalipse</t>
-  </si>
-  <si>
-    <t>É uma perda de tempo.,Quase todos te ignoram.,Você precisa praticar muito mais.,Você terminou de jogar.,Não é bom.,Parece que as pessoas gostaram da sua performance.,Sua performance foi bem-sucedida.,Maravilhoso!,Grande performance.,Um palco lendário!</t>
-  </si>
-  <si>
-    <t>Poderoso,Enfraquecido</t>
-  </si>
-  <si>
-    <t>Fortificado,Frágil</t>
-  </si>
-  <si>
-    <t>Ágil,Desajeitado</t>
-  </si>
-  <si>
-    <t>Sentido apurado,Senso embotado</t>
-  </si>
-  <si>
-    <t>Iluminado,Prejudicado</t>
-  </si>
-  <si>
-    <t>Inflexível,Submisso</t>
-  </si>
-  <si>
-    <t>Magia Amplificada,Magia Drenada</t>
-  </si>
-  <si>
-    <t>Alegre,Melancólico</t>
-  </si>
-  <si>
-    <t>Sortudo,Amaldiçoado</t>
-  </si>
-  <si>
-    <t>Apressado,Lento</t>
-  </si>
-  <si>
-    <t>cru,normal,boa,maravilha,divino,especial</t>
-  </si>
-  <si>
-    <t>Manchado,Qualidade Comum,Qualidade Razoável,Qualidade Boa,Qualidade Premium,Qualidade Real</t>
-  </si>
-  <si>
-    <t>,qualidade ,pura ,lendária</t>
-  </si>
-  <si>
-    <t>-,Amador,Novato,Aprendiz,Profissional,Especialista,Perito,Mestre,Grandemestre</t>
-  </si>
-  <si>
-    <t>Mais baixo,Baixo,Normal,Alto,Mais alto</t>
-  </si>
-  <si>
-    <t>Uma noite no Prado,Uma noite no Prado (Inverno)(Teste),Em uma caverna (Teste)</t>
-  </si>
-  <si>
     <t>Altura Instantânea: &lt;b&gt;Shift + Clique&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Novato,Aprendiz,Profissional,Perito,Especialista,Mestre,Grandemestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extremamente mini ,pequeno ,prático ,bastante grande ,enorme ,muito enorme ,tamanho monstruoso ,maior que um homem ,tamanho lendário ,mais pesado que um elefante </t>
-  </si>
-  <si>
-    <t>Recém-crescido,Levemente fofo,Quase fofo,fofo</t>
-  </si>
-  <si>
-    <t>conta,imposto,treinador,guarda</t>
-  </si>
-  <si>
-    <t>Perder,3º Prêmio,2º Prêmio,1º Prêmio</t>
-  </si>
-  <si>
-    <t>Aventureiro Novato,Aventureiro,Aventureiro Veterano,Personalizado</t>
-  </si>
-  <si>
-    <t>Aventureiro Legado,Aventureiro Novato,Aventureiro,Aventureiro Veterano,Aventureiro Lendário,Aventureiro Mítico</t>
-  </si>
-  <si>
     <t>barrel</t>
   </si>
   <si>
@@ -1330,19 +1066,298 @@
     <t>た～る♪,たーる！,たーるっ,たる</t>
   </si>
   <si>
-    <t>Ba～rril♪,Barril!,Barri~l!,Barril.</t>
-  </si>
-  <si>
     <t>一括変更:&lt;b&gt;Shift + クリック&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">um(a) ,um(a) </t>
-  </si>
-  <si>
-    <t>irmão,irmão,rapaz</t>
-  </si>
-  <si>
-    <t>irmã,irmã,garota</t>
+    <t>Pergaminho Antigo, Pergaminho Estranho, Pergaminho Rúnico, Pergaminho Longo, Pergaminho Rasgado</t>
+  </si>
+  <si>
+    <t>Um, Uma</t>
+  </si>
+  <si>
+    <t>Janeiro, Fevereiro, Março, Abril, Maio, Junho, Julho, Agosto, Setembro, Outubro, Novembro, Dezembro</t>
+  </si>
+  <si>
+    <t>Primavera, Verão, Outono, Inverno</t>
+  </si>
+  <si>
+    <t>Prim, Ver, Out, Inv</t>
+  </si>
+  <si>
+    <t>???, Feminino, Masculino</t>
+  </si>
+  <si>
+    <t>Menina, Menina, Menino</t>
+  </si>
+  <si>
+    <t>Irmão, Mano, Garoto</t>
+  </si>
+  <si>
+    <t>Irmã, Mana, Garota</t>
+  </si>
+  <si>
+    <t>Aleatório, Criança, Jovem, Adulto, Idoso</t>
+  </si>
+  <si>
+    <t>..., Umimyaa, Não Consigo Dormir Esta Noite</t>
+  </si>
+  <si>
+    <t>Inimigo, Ódio, Irritante, Normal, Aprovado, Amigável, Respeitado, Íntimo, Afetuoso, *Amor*, *Amor Amor*</t>
+  </si>
+  <si>
+    <t>Poção Malhada, Poção Nublada, Poção Clara, Poção Turva, Poção Pálida, Poção Pegajosa, Poção Borbulhante</t>
+  </si>
+  <si>
+    <t>Livro Suspeito, Livro Fino, Livro Leve, Livro Atraente, Livro Chamativo, Livro Brilhante, Livro Preocupante, Livro Majestoso, Livro Pesado</t>
+  </si>
+  <si>
+    <t>Tomo Antigo, Tomo Estranho, Tomo Rúnico, Tomo Grosso, Tomo Majestoso</t>
+  </si>
+  <si>
+    <t>Bastão Curto, Bastão Longo, Bastão Torto, Bastão Grosso, Bastão Fino, Bastão Pesado, Bastão Incomum, Bastão Elegante, Bastão Simples</t>
+  </si>
+  <si>
+    <t>Armadilha Desconhecida</t>
+  </si>
+  <si>
+    <t>*Crunch*, *Scritch*, *Kisssh*, *Thudd*, *Clump*</t>
+  </si>
+  <si>
+    <t>*Drip*, *Sip*, *Drizzle*, *Splash*, *Kissh*</t>
+  </si>
+  <si>
+    <t>*Pling♪*, *Zing♪*, *Plunk♪*, *Chika Chika♪*, *Ta Ra Ra♪*</t>
+  </si>
+  <si>
+    <t>Sobrepujado, Formidável, Justo, Fácil, Muito Fácil</t>
+  </si>
+  <si>
+    <t>Corte(s), Corte(s), Corte(s), Corte(s)</t>
+  </si>
+  <si>
+    <t>Estocada(s), Estocada(s), Estocada(s), Estocada(s)</t>
+  </si>
+  <si>
+    <t>Esmagar(es), Esmagar(es), Esmagar(es), Esmagar(es)</t>
+  </si>
+  <si>
+    <t>Zap(s), Zap(s), Zap(s), Zap(s)</t>
+  </si>
+  <si>
+    <t>Lançar Fogo Em, Lançar Fogo Em, Lançar Fogo Em, Lançar Fogo Em</t>
+  </si>
+  <si>
+    <t>Atirar(s), Atirar(s), Atirar(s), Atirar(s)</t>
+  </si>
+  <si>
+    <t>Socar(es), Socar(es), Socar(es), Socar(es), Mão</t>
+  </si>
+  <si>
+    <t>Chute(s), Chute(s), Chute(s), Chute(s), Perna</t>
+  </si>
+  <si>
+    <t>Garra(s), Garra(s), Garra(s), Garra(s), Garra</t>
+  </si>
+  <si>
+    <t>Mordida(s), Mordida(s), Mordida(s), Mordida(s), Presa</t>
+  </si>
+  <si>
+    <t>Espalhar(es) Esporos Em, Espalhar(es) Esporos Em, Espalhar(es) Esporos Em, Espalhar(es) Esporos Em, Esporos</t>
+  </si>
+  <si>
+    <t>Olhar(es), Olhar(es), Olhar(es), Olhar(es), Olho</t>
+  </si>
+  <si>
+    <t>Picada(s), Picada(s), Picada(s), Picada(s), Agulha</t>
+  </si>
+  <si>
+    <t>Tocar(es), Tocar(es), Tocar(es), Tocar(es), Mão</t>
+  </si>
+  <si>
+    <t>Fácil, Normal, Difícil, Impossível</t>
+  </si>
+  <si>
+    <t>Enfurecido, Descontente, Mal-Humorado, Calmo, Satisfeito, Encantado, Exultante</t>
+  </si>
+  <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>Campo De Neve</t>
+  </si>
+  <si>
+    <t>Irmão♪, Irmão-chan!, Irmãoichan♪, Irmão-chan, Irmão-chan?, Irmão-chan!?</t>
+  </si>
+  <si>
+    <t>Irmã♪, Irmã-chan!, Irmãichan♪, Irmã-chan, Irmã-chan?, Irmã-chan!?</t>
+  </si>
+  <si>
+    <t>Conhecido, Vizinho, Amigo, Gato, Cachorro, Leão-Marinho Glutão, Putit, Colega, Frango, Mascote</t>
+  </si>
+  <si>
+    <t>Amigo, Parente, Amante, Irmã, Irmão, Esposa, Chefe, Noiva, Querido, Mamãe, Papai, Gato, Criança</t>
+  </si>
+  <si>
+    <t>Amigo, Magnata, Nobre, Comerciante, Erudito, Aventureiro, Contrabandista, Revendedor</t>
+  </si>
+  <si>
+    <t>Nenhum, Fraqueza, Defeito</t>
+  </si>
+  <si>
+    <t>Escolha Um Gênero,,,Lista De Gêneros</t>
+  </si>
+  <si>
+    <t>Escolha Uma Classe,,,Lista De Classes</t>
+  </si>
+  <si>
+    <t>Escolha Uma Raça,,,Lista De Raças</t>
+  </si>
+  <si>
+    <t>Escolha Um Apelido,,,Lista De Apelidos</t>
+  </si>
+  <si>
+    <t>Escolha Uma Faixa Etária,,,Lista De Faixas Etárias</t>
+  </si>
+  <si>
+    <t>Escolha Um Prólogo,,,Lista De Prólogos</t>
+  </si>
+  <si>
+    <t>Escolha Um Local De Portal,,,Nome Do Local</t>
+  </si>
+  <si>
+    <t>Escolha Um Local De Retorno,,,Nome Do Local, Nível De Retorno</t>
+  </si>
+  <si>
+    <t>Escolha Um Encantamento Para Extrair,,,Nome Do Encantamento, Nível</t>
+  </si>
+  <si>
+    <t>Escolha Uma Habilidade Para Treinar,,,Nome Da Habilidade, Custo Em Moedas De Platina</t>
+  </si>
+  <si>
+    <t>Escolha Uma Receita,,,Nome Da Receita, Possuída, Habilidade De Artesanato</t>
+  </si>
+  <si>
+    <t>Escolha Um Escravo,,,Nome Da Criatura, Preço, Trabalho</t>
+  </si>
+  <si>
+    <t>Escolha Um Aliado Para Reviver,,,Nome Do Aliado, Preço, Classe</t>
+  </si>
+  <si>
+    <t>Escolha Um Aliado Para Chamar,,,Nome Do Aliado, Interação, Classe</t>
+  </si>
+  <si>
+    <t>,,,Nome Do Aliado, Interação, Informação</t>
+  </si>
+  <si>
+    <t>,,,Nome Do Aliado, Nota</t>
+  </si>
+  <si>
+    <t>Escolha Uma Música,,,Nome Da Música, Interação</t>
+  </si>
+  <si>
+    <t>Playlist Atual,,,Nome Da Música, Interação</t>
+  </si>
+  <si>
+    <t>Músicas Na Memória,,,Nome Da Música, Interação</t>
+  </si>
+  <si>
+    <t>Escolha Um Destino Para Viagem Rápida,,,Nome Do Destino, Dias, Ração Requerida</t>
+  </si>
+  <si>
+    <t>Caranguejo Rei, Atum Bluefin, Lagosta Espinhosa, Amêijoa Oriental Comum, Ouriço-Do-Mar, Pepino-Do-Mar</t>
+  </si>
+  <si>
+    <t>Miau Miau Miau!, Miau Miau!, Miau., Chato., Cuidado!, (Pssst...)</t>
+  </si>
+  <si>
+    <t>Libere-Os...!, Nossas Espadas...!, Minha Espada...!, Meu Amigo..., Minha Alma..., Meu Orgulho..., Por Favor... A Espada..., Esperamos Por Tanto Tempo..., Minha Espada Que Foi Atada Por Ele..., Minha Espada Que Foi Roubada Por Ele..., Minha Espada..., A Espada..., Você... Libertou Minha Espada...?, Quem É...?</t>
+  </si>
+  <si>
+    <t>Estúpido, Sem Graça, Legal, Favorito Da Madame, Enfeitiçado, Maniaco, Estimado, Magnífico, Real, Obra-Prima, Celestial, Divino</t>
+  </si>
+  <si>
+    <t>Manuscrito Voynich, Cânticos Dhol, Escritura De Ponape, Revelações De Glaaki, Fragmentos De G'harne, Liber Damnatus, Livro De Dzyan, Livro De Eibon, Grande Grimório, Fragmentos De Celaeno, Necronomicon, O Texto De R'lyeh, Fragmentos De Eltdown, O Ramo Dourado, Apocalipse</t>
+  </si>
+  <si>
+    <t>É Uma Perda De Tempo., Quase Todos Te Ignoram., Você Precisa Praticar Muito Mais., Você Terminou De Jogar., Não É Bom., As Pessoas Parecem Gostar Da Sua Performance., Sua Performance É Um Sucesso., Maravilhoso!, Excelente Performance., Um Palco Lendário!</t>
+  </si>
+  <si>
+    <t>Fortificado, Frágil</t>
+  </si>
+  <si>
+    <t>Ágil, Desajeitado</t>
+  </si>
+  <si>
+    <t>Iluminado, Prejudicado</t>
+  </si>
+  <si>
+    <t>Inflexível, Subjugado</t>
+  </si>
+  <si>
+    <t>Magia Amplificada, Magia Drenada</t>
+  </si>
+  <si>
+    <t>Alegre, Sombrio</t>
+  </si>
+  <si>
+    <t>Sortudo, Amaldiçoado</t>
+  </si>
+  <si>
+    <t>Acelerado, Lento</t>
+  </si>
+  <si>
+    <t>Bruto, Normal, Bom, Milagroso, Divino, Especial</t>
+  </si>
+  <si>
+    <t>Desgastado, Qualidade Comum, Qualidade Razoável, Qualidade Fina, Qualidade Premium, Qualidade Real</t>
+  </si>
+  <si>
+    <t>, Qualidade, Puro, Fabuloso</t>
+  </si>
+  <si>
+    <t>-, Amador, Novato, Aprendiz, Profissional, Especialista, Versado, Mestre, Grande Mestre</t>
+  </si>
+  <si>
+    <t>Mínimo, Baixo, Normal, Alto, Máximo</t>
+  </si>
+  <si>
+    <t>Uma Noite No Prado, Uma Noite No Prado (Inverno)(Teste), Em Uma Caverna (Teste)</t>
+  </si>
+  <si>
+    <t>Th, St, Nd, Rd</t>
+  </si>
+  <si>
+    <t>Recém-Crescido, Levemente Fofo, Quase Fofo, Fofo</t>
+  </si>
+  <si>
+    <t>Conta, Imposto, Treinador, Guarda</t>
+  </si>
+  <si>
+    <t>Perder, 3º Prêmio, 2º Prêmio, 1º Prêmio</t>
+  </si>
+  <si>
+    <t>Aventureiro Novato, Aventureiro, Aventureiro Veterano, Personalizado</t>
+  </si>
+  <si>
+    <t>Aventureiro Legado, Aventureiro Novato, Aventureiro, Aventureiro Veterano, Aventureiro Lendário, Aventureiro Mítico</t>
+  </si>
+  <si>
+    <t>Barril♪, Barril!, Barril!, Barril.</t>
+  </si>
+  <si>
+    <t>Extremamente Pequeno, Pequeno, Prático, Consideravelmente Grande, Enorme, Muito Enorme, Tamanho Monstruoso, Maior Que Um Homem, Tamanho Lendário, Mais Pesado Que Um Elefante</t>
+  </si>
+  <si>
+    <t>Novato, Aprendiz, Profissional, Veterano, Especialista, Mestre, Grande Mestre</t>
+  </si>
+  <si>
+    <t>Percepção Aguçada, Percepção Limitada</t>
+  </si>
+  <si>
+    <t>Poderoso, Fraco</t>
+  </si>
+  <si>
+    <t>Nenhum, Normal, Forte, Excelente, Imune, Imune+</t>
   </si>
 </sst>
 </file>
@@ -1722,16 +1737,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="243.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="243.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1762,7 +1778,7 @@
         <v>313</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1776,7 +1792,7 @@
         <v>314</v>
       </c>
       <c r="D4" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1793,7 +1809,7 @@
         <v>314</v>
       </c>
       <c r="D5" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1810,7 +1826,7 @@
         <v>314</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1827,7 +1843,7 @@
         <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1844,7 +1860,7 @@
         <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1861,7 +1877,7 @@
         <v>316</v>
       </c>
       <c r="D9" t="s">
-        <v>438</v>
+        <v>355</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1878,7 +1894,7 @@
         <v>316</v>
       </c>
       <c r="D10" t="s">
-        <v>439</v>
+        <v>356</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -1895,7 +1911,7 @@
         <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -1915,7 +1931,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -1932,7 +1948,7 @@
         <v>317</v>
       </c>
       <c r="D13" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -1952,7 +1968,7 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -1972,7 +1988,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -1992,7 +2008,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -2012,7 +2028,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -2032,7 +2048,7 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -2052,7 +2068,7 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
@@ -2072,7 +2088,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -2092,7 +2108,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -2112,7 +2128,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>367</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -2132,7 +2148,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -2152,7 +2168,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
@@ -2172,7 +2188,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>370</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
@@ -2192,7 +2208,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -2212,7 +2228,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
@@ -2232,7 +2248,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E28" t="s">
         <v>81</v>
@@ -2252,7 +2268,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="E29" t="s">
         <v>84</v>
@@ -2272,7 +2288,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="E30" t="s">
         <v>87</v>
@@ -2292,7 +2308,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
@@ -2312,7 +2328,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="E32" t="s">
         <v>93</v>
@@ -2332,7 +2348,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="E33" t="s">
         <v>96</v>
@@ -2352,7 +2368,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="E34" t="s">
         <v>99</v>
@@ -2372,7 +2388,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="E35" t="s">
         <v>102</v>
@@ -2392,7 +2408,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="E36" t="s">
         <v>105</v>
@@ -2412,7 +2428,7 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -2429,7 +2445,7 @@
         <v>314</v>
       </c>
       <c r="D38" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="E38" t="s">
         <v>111</v>
@@ -2446,7 +2462,7 @@
         <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="E39" t="s">
         <v>114</v>
@@ -2463,7 +2479,7 @@
         <v>314</v>
       </c>
       <c r="D40" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="E40" t="s">
         <v>117</v>
@@ -2480,7 +2496,7 @@
         <v>314</v>
       </c>
       <c r="D41" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E41" t="s">
         <v>120</v>
@@ -2497,7 +2513,7 @@
         <v>314</v>
       </c>
       <c r="D42" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E42" t="s">
         <v>123</v>
@@ -2514,7 +2530,7 @@
         <v>314</v>
       </c>
       <c r="D43" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="E43" t="s">
         <v>126</v>
@@ -2531,7 +2547,7 @@
         <v>314</v>
       </c>
       <c r="D44" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="E44" t="s">
         <v>129</v>
@@ -2548,7 +2564,7 @@
         <v>314</v>
       </c>
       <c r="D45" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="E45" t="s">
         <v>132</v>
@@ -2565,7 +2581,7 @@
         <v>314</v>
       </c>
       <c r="D46" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="E46" t="s">
         <v>135</v>
@@ -2582,7 +2598,7 @@
         <v>322</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>387</v>
       </c>
       <c r="E47" t="s">
         <v>138</v>
@@ -2599,7 +2615,7 @@
         <v>322</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>388</v>
       </c>
       <c r="E48" t="s">
         <v>141</v>
@@ -2616,7 +2632,7 @@
         <v>323</v>
       </c>
       <c r="D49" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="E49" t="s">
         <v>144</v>
@@ -2633,7 +2649,7 @@
         <v>324</v>
       </c>
       <c r="D50" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="E50" t="s">
         <v>147</v>
@@ -2650,7 +2666,7 @@
         <v>324</v>
       </c>
       <c r="D51" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -2667,7 +2683,7 @@
         <v>325</v>
       </c>
       <c r="D52" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
       <c r="E52" t="s">
         <v>153</v>
@@ -2684,7 +2700,7 @@
         <v>314</v>
       </c>
       <c r="D53" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="E53" t="s">
         <v>156</v>
@@ -2704,7 +2720,7 @@
         <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="E54" t="s">
         <v>160</v>
@@ -2724,7 +2740,7 @@
         <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="E55" t="s">
         <v>163</v>
@@ -2744,7 +2760,7 @@
         <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="E56" t="s">
         <v>166</v>
@@ -2764,7 +2780,7 @@
         <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="E57" t="s">
         <v>169</v>
@@ -2784,7 +2800,7 @@
         <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="E58" t="s">
         <v>172</v>
@@ -2804,7 +2820,7 @@
         <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E59" t="s">
         <v>175</v>
@@ -2824,7 +2840,7 @@
         <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="E60" t="s">
         <v>178</v>
@@ -2844,7 +2860,7 @@
         <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="E61" t="s">
         <v>181</v>
@@ -2864,7 +2880,7 @@
         <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="E62" t="s">
         <v>184</v>
@@ -2884,7 +2900,7 @@
         <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E63" t="s">
         <v>187</v>
@@ -2904,7 +2920,7 @@
         <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="E64" t="s">
         <v>190</v>
@@ -2924,7 +2940,7 @@
         <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="E65" t="s">
         <v>193</v>
@@ -2944,7 +2960,7 @@
         <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="E66" t="s">
         <v>196</v>
@@ -2964,7 +2980,7 @@
         <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="E67" t="s">
         <v>199</v>
@@ -2984,7 +3000,7 @@
         <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E68" t="s">
         <v>202</v>
@@ -3004,7 +3020,7 @@
         <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="E69" t="s">
         <v>205</v>
@@ -3024,7 +3040,7 @@
         <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="E70" t="s">
         <v>205</v>
@@ -3044,7 +3060,7 @@
         <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E71" t="s">
         <v>209</v>
@@ -3064,7 +3080,7 @@
         <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="E72" t="s">
         <v>212</v>
@@ -3084,7 +3100,7 @@
         <v>159</v>
       </c>
       <c r="D73" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="E73" t="s">
         <v>215</v>
@@ -3104,7 +3120,7 @@
         <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="E74" t="s">
         <v>218</v>
@@ -3121,7 +3137,7 @@
         <v>327</v>
       </c>
       <c r="D75" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="E75" t="s">
         <v>221</v>
@@ -3138,7 +3154,7 @@
         <v>316</v>
       </c>
       <c r="D76" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="E76" t="s">
         <v>224</v>
@@ -3155,7 +3171,7 @@
         <v>318</v>
       </c>
       <c r="D77" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="E77" t="s">
         <v>227</v>
@@ -3172,7 +3188,7 @@
         <v>318</v>
       </c>
       <c r="D78" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E78" t="s">
         <v>230</v>
@@ -3189,7 +3205,7 @@
         <v>318</v>
       </c>
       <c r="D79" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E79" t="s">
         <v>233</v>
@@ -3206,7 +3222,7 @@
         <v>325</v>
       </c>
       <c r="D80" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="E80" t="s">
         <v>236</v>
@@ -3223,7 +3239,7 @@
         <v>325</v>
       </c>
       <c r="D81" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="E81" t="s">
         <v>239</v>
@@ -3240,7 +3256,7 @@
         <v>325</v>
       </c>
       <c r="D82" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="E82" t="s">
         <v>242</v>
@@ -3257,7 +3273,7 @@
         <v>325</v>
       </c>
       <c r="D83" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="E83" t="s">
         <v>245</v>
@@ -3274,7 +3290,7 @@
         <v>325</v>
       </c>
       <c r="D84" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="E84" t="s">
         <v>248</v>
@@ -3291,7 +3307,7 @@
         <v>325</v>
       </c>
       <c r="D85" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E85" t="s">
         <v>251</v>
@@ -3308,7 +3324,7 @@
         <v>325</v>
       </c>
       <c r="D86" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E86" t="s">
         <v>254</v>
@@ -3325,7 +3341,7 @@
         <v>325</v>
       </c>
       <c r="D87" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="E87" t="s">
         <v>257</v>
@@ -3342,7 +3358,7 @@
         <v>325</v>
       </c>
       <c r="D88" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E88" t="s">
         <v>260</v>
@@ -3359,7 +3375,7 @@
         <v>325</v>
       </c>
       <c r="D89" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="E89" t="s">
         <v>263</v>
@@ -3376,7 +3392,7 @@
         <v>325</v>
       </c>
       <c r="D90" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E90" t="s">
         <v>266</v>
@@ -3393,7 +3409,7 @@
         <v>325</v>
       </c>
       <c r="D91" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="E91" t="s">
         <v>269</v>
@@ -3410,7 +3426,7 @@
         <v>319</v>
       </c>
       <c r="D92" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="E92" t="s">
         <v>272</v>
@@ -3427,7 +3443,7 @@
         <v>319</v>
       </c>
       <c r="D93" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E93" t="s">
         <v>275</v>
@@ -3444,7 +3460,7 @@
         <v>327</v>
       </c>
       <c r="D94" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="E94" t="s">
         <v>278</v>
@@ -3461,7 +3477,7 @@
         <v>327</v>
       </c>
       <c r="D95" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="E95" t="s">
         <v>281</v>
@@ -3478,7 +3494,7 @@
         <v>333</v>
       </c>
       <c r="D96" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E96" t="s">
         <v>284</v>
@@ -3498,13 +3514,13 @@
         <v>287</v>
       </c>
       <c r="D97" t="s">
-        <v>423</v>
+        <v>342</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
       </c>
       <c r="F97" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3515,7 +3531,7 @@
         <v>324</v>
       </c>
       <c r="D98" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="E98" t="s">
         <v>290</v>
@@ -3532,7 +3548,7 @@
         <v>324</v>
       </c>
       <c r="D99" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="E99" t="s">
         <v>293</v>
@@ -3549,7 +3565,7 @@
         <v>324</v>
       </c>
       <c r="D100" t="s">
-        <v>296</v>
+        <v>433</v>
       </c>
       <c r="E100" t="s">
         <v>296</v>
@@ -3566,7 +3582,7 @@
         <v>334</v>
       </c>
       <c r="D101" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E101" t="s">
         <v>299</v>
@@ -3583,7 +3599,7 @@
         <v>332</v>
       </c>
       <c r="D102" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E102" t="s">
         <v>302</v>
@@ -3600,7 +3616,7 @@
         <v>335</v>
       </c>
       <c r="D103" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E103" t="s">
         <v>305</v>
@@ -3617,7 +3633,7 @@
         <v>336</v>
       </c>
       <c r="D104" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E104" t="s">
         <v>308</v>
@@ -3634,7 +3650,7 @@
         <v>336</v>
       </c>
       <c r="D105" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E105" t="s">
         <v>311</v>
@@ -3645,19 +3661,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>431</v>
+        <v>343</v>
       </c>
       <c r="B106" t="s">
-        <v>432</v>
+        <v>344</v>
       </c>
       <c r="D106" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E106" t="s">
-        <v>433</v>
+        <v>345</v>
       </c>
       <c r="F106" t="s">
-        <v>434</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/Traduzido/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0A784A-C8DF-45D9-BC01-8D713224AF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6FA83F-5C8D-4351-957F-A4CB782C174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>monthEng</t>
   </si>
   <si>
-    <t>January, February, March, April, May, June, July, August, September, October, November, December</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -1069,141 +1066,15 @@
     <t>一括変更:&lt;b&gt;Shift + クリック&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Pergaminho Antigo, Pergaminho Estranho, Pergaminho Rúnico, Pergaminho Longo, Pergaminho Rasgado</t>
-  </si>
-  <si>
-    <t>Um, Uma</t>
-  </si>
-  <si>
-    <t>Janeiro, Fevereiro, Março, Abril, Maio, Junho, Julho, Agosto, Setembro, Outubro, Novembro, Dezembro</t>
-  </si>
-  <si>
-    <t>Primavera, Verão, Outono, Inverno</t>
-  </si>
-  <si>
-    <t>Prim, Ver, Out, Inv</t>
-  </si>
-  <si>
-    <t>???, Feminino, Masculino</t>
-  </si>
-  <si>
-    <t>Menina, Menina, Menino</t>
-  </si>
-  <si>
-    <t>Irmão, Mano, Garoto</t>
-  </si>
-  <si>
-    <t>Irmã, Mana, Garota</t>
-  </si>
-  <si>
-    <t>Aleatório, Criança, Jovem, Adulto, Idoso</t>
-  </si>
-  <si>
-    <t>..., Umimyaa, Não Consigo Dormir Esta Noite</t>
-  </si>
-  <si>
-    <t>Inimigo, Ódio, Irritante, Normal, Aprovado, Amigável, Respeitado, Íntimo, Afetuoso, *Amor*, *Amor Amor*</t>
-  </si>
-  <si>
-    <t>Poção Malhada, Poção Nublada, Poção Clara, Poção Turva, Poção Pálida, Poção Pegajosa, Poção Borbulhante</t>
-  </si>
-  <si>
-    <t>Livro Suspeito, Livro Fino, Livro Leve, Livro Atraente, Livro Chamativo, Livro Brilhante, Livro Preocupante, Livro Majestoso, Livro Pesado</t>
-  </si>
-  <si>
-    <t>Tomo Antigo, Tomo Estranho, Tomo Rúnico, Tomo Grosso, Tomo Majestoso</t>
-  </si>
-  <si>
-    <t>Bastão Curto, Bastão Longo, Bastão Torto, Bastão Grosso, Bastão Fino, Bastão Pesado, Bastão Incomum, Bastão Elegante, Bastão Simples</t>
-  </si>
-  <si>
     <t>Armadilha Desconhecida</t>
   </si>
   <si>
-    <t>*Crunch*, *Scritch*, *Kisssh*, *Thudd*, *Clump*</t>
-  </si>
-  <si>
-    <t>*Drip*, *Sip*, *Drizzle*, *Splash*, *Kissh*</t>
-  </si>
-  <si>
-    <t>*Pling♪*, *Zing♪*, *Plunk♪*, *Chika Chika♪*, *Ta Ra Ra♪*</t>
-  </si>
-  <si>
-    <t>Sobrepujado, Formidável, Justo, Fácil, Muito Fácil</t>
-  </si>
-  <si>
-    <t>Corte(s), Corte(s), Corte(s), Corte(s)</t>
-  </si>
-  <si>
-    <t>Estocada(s), Estocada(s), Estocada(s), Estocada(s)</t>
-  </si>
-  <si>
-    <t>Esmagar(es), Esmagar(es), Esmagar(es), Esmagar(es)</t>
-  </si>
-  <si>
-    <t>Zap(s), Zap(s), Zap(s), Zap(s)</t>
-  </si>
-  <si>
-    <t>Lançar Fogo Em, Lançar Fogo Em, Lançar Fogo Em, Lançar Fogo Em</t>
-  </si>
-  <si>
-    <t>Atirar(s), Atirar(s), Atirar(s), Atirar(s)</t>
-  </si>
-  <si>
-    <t>Socar(es), Socar(es), Socar(es), Socar(es), Mão</t>
-  </si>
-  <si>
-    <t>Chute(s), Chute(s), Chute(s), Chute(s), Perna</t>
-  </si>
-  <si>
-    <t>Garra(s), Garra(s), Garra(s), Garra(s), Garra</t>
-  </si>
-  <si>
-    <t>Mordida(s), Mordida(s), Mordida(s), Mordida(s), Presa</t>
-  </si>
-  <si>
-    <t>Espalhar(es) Esporos Em, Espalhar(es) Esporos Em, Espalhar(es) Esporos Em, Espalhar(es) Esporos Em, Esporos</t>
-  </si>
-  <si>
-    <t>Olhar(es), Olhar(es), Olhar(es), Olhar(es), Olho</t>
-  </si>
-  <si>
-    <t>Picada(s), Picada(s), Picada(s), Picada(s), Agulha</t>
-  </si>
-  <si>
-    <t>Tocar(es), Tocar(es), Tocar(es), Tocar(es), Mão</t>
-  </si>
-  <si>
-    <t>Fácil, Normal, Difícil, Impossível</t>
-  </si>
-  <si>
-    <t>Enfurecido, Descontente, Mal-Humorado, Calmo, Satisfeito, Encantado, Exultante</t>
-  </si>
-  <si>
     <t>Costa</t>
   </si>
   <si>
     <t>Campo De Neve</t>
   </si>
   <si>
-    <t>Irmão♪, Irmão-chan!, Irmãoichan♪, Irmão-chan, Irmão-chan?, Irmão-chan!?</t>
-  </si>
-  <si>
-    <t>Irmã♪, Irmã-chan!, Irmãichan♪, Irmã-chan, Irmã-chan?, Irmã-chan!?</t>
-  </si>
-  <si>
-    <t>Conhecido, Vizinho, Amigo, Gato, Cachorro, Leão-Marinho Glutão, Putit, Colega, Frango, Mascote</t>
-  </si>
-  <si>
-    <t>Amigo, Parente, Amante, Irmã, Irmão, Esposa, Chefe, Noiva, Querido, Mamãe, Papai, Gato, Criança</t>
-  </si>
-  <si>
-    <t>Amigo, Magnata, Nobre, Comerciante, Erudito, Aventureiro, Contrabandista, Revendedor</t>
-  </si>
-  <si>
-    <t>Nenhum, Fraqueza, Defeito</t>
-  </si>
-  <si>
     <t>Escolha Um Gênero,,,Lista De Gêneros</t>
   </si>
   <si>
@@ -1225,139 +1096,268 @@
     <t>Escolha Um Local De Portal,,,Nome Do Local</t>
   </si>
   <si>
-    <t>Escolha Um Local De Retorno,,,Nome Do Local, Nível De Retorno</t>
-  </si>
-  <si>
-    <t>Escolha Um Encantamento Para Extrair,,,Nome Do Encantamento, Nível</t>
-  </si>
-  <si>
-    <t>Escolha Uma Habilidade Para Treinar,,,Nome Da Habilidade, Custo Em Moedas De Platina</t>
-  </si>
-  <si>
-    <t>Escolha Uma Receita,,,Nome Da Receita, Possuída, Habilidade De Artesanato</t>
-  </si>
-  <si>
-    <t>Escolha Um Escravo,,,Nome Da Criatura, Preço, Trabalho</t>
-  </si>
-  <si>
-    <t>Escolha Um Aliado Para Reviver,,,Nome Do Aliado, Preço, Classe</t>
-  </si>
-  <si>
-    <t>Escolha Um Aliado Para Chamar,,,Nome Do Aliado, Interação, Classe</t>
-  </si>
-  <si>
-    <t>,,,Nome Do Aliado, Interação, Informação</t>
-  </si>
-  <si>
-    <t>,,,Nome Do Aliado, Nota</t>
-  </si>
-  <si>
-    <t>Escolha Uma Música,,,Nome Da Música, Interação</t>
-  </si>
-  <si>
-    <t>Playlist Atual,,,Nome Da Música, Interação</t>
-  </si>
-  <si>
-    <t>Músicas Na Memória,,,Nome Da Música, Interação</t>
-  </si>
-  <si>
-    <t>Escolha Um Destino Para Viagem Rápida,,,Nome Do Destino, Dias, Ração Requerida</t>
-  </si>
-  <si>
-    <t>Caranguejo Rei, Atum Bluefin, Lagosta Espinhosa, Amêijoa Oriental Comum, Ouriço-Do-Mar, Pepino-Do-Mar</t>
-  </si>
-  <si>
-    <t>Miau Miau Miau!, Miau Miau!, Miau., Chato., Cuidado!, (Pssst...)</t>
-  </si>
-  <si>
-    <t>Libere-Os...!, Nossas Espadas...!, Minha Espada...!, Meu Amigo..., Minha Alma..., Meu Orgulho..., Por Favor... A Espada..., Esperamos Por Tanto Tempo..., Minha Espada Que Foi Atada Por Ele..., Minha Espada Que Foi Roubada Por Ele..., Minha Espada..., A Espada..., Você... Libertou Minha Espada...?, Quem É...?</t>
-  </si>
-  <si>
-    <t>Estúpido, Sem Graça, Legal, Favorito Da Madame, Enfeitiçado, Maniaco, Estimado, Magnífico, Real, Obra-Prima, Celestial, Divino</t>
-  </si>
-  <si>
-    <t>Manuscrito Voynich, Cânticos Dhol, Escritura De Ponape, Revelações De Glaaki, Fragmentos De G'harne, Liber Damnatus, Livro De Dzyan, Livro De Eibon, Grande Grimório, Fragmentos De Celaeno, Necronomicon, O Texto De R'lyeh, Fragmentos De Eltdown, O Ramo Dourado, Apocalipse</t>
-  </si>
-  <si>
-    <t>É Uma Perda De Tempo., Quase Todos Te Ignoram., Você Precisa Praticar Muito Mais., Você Terminou De Jogar., Não É Bom., As Pessoas Parecem Gostar Da Sua Performance., Sua Performance É Um Sucesso., Maravilhoso!, Excelente Performance., Um Palco Lendário!</t>
-  </si>
-  <si>
-    <t>Fortificado, Frágil</t>
-  </si>
-  <si>
-    <t>Ágil, Desajeitado</t>
-  </si>
-  <si>
-    <t>Iluminado, Prejudicado</t>
-  </si>
-  <si>
-    <t>Inflexível, Subjugado</t>
-  </si>
-  <si>
-    <t>Magia Amplificada, Magia Drenada</t>
-  </si>
-  <si>
-    <t>Alegre, Sombrio</t>
-  </si>
-  <si>
-    <t>Sortudo, Amaldiçoado</t>
-  </si>
-  <si>
-    <t>Acelerado, Lento</t>
-  </si>
-  <si>
-    <t>Bruto, Normal, Bom, Milagroso, Divino, Especial</t>
-  </si>
-  <si>
-    <t>Desgastado, Qualidade Comum, Qualidade Razoável, Qualidade Fina, Qualidade Premium, Qualidade Real</t>
-  </si>
-  <si>
-    <t>, Qualidade, Puro, Fabuloso</t>
-  </si>
-  <si>
-    <t>-, Amador, Novato, Aprendiz, Profissional, Especialista, Versado, Mestre, Grande Mestre</t>
-  </si>
-  <si>
-    <t>Mínimo, Baixo, Normal, Alto, Máximo</t>
-  </si>
-  <si>
-    <t>Uma Noite No Prado, Uma Noite No Prado (Inverno)(Teste), Em Uma Caverna (Teste)</t>
-  </si>
-  <si>
-    <t>Th, St, Nd, Rd</t>
-  </si>
-  <si>
-    <t>Recém-Crescido, Levemente Fofo, Quase Fofo, Fofo</t>
-  </si>
-  <si>
-    <t>Conta, Imposto, Treinador, Guarda</t>
-  </si>
-  <si>
-    <t>Perder, 3º Prêmio, 2º Prêmio, 1º Prêmio</t>
-  </si>
-  <si>
-    <t>Aventureiro Novato, Aventureiro, Aventureiro Veterano, Personalizado</t>
-  </si>
-  <si>
-    <t>Aventureiro Legado, Aventureiro Novato, Aventureiro, Aventureiro Veterano, Aventureiro Lendário, Aventureiro Mítico</t>
-  </si>
-  <si>
-    <t>Barril♪, Barril!, Barril!, Barril.</t>
-  </si>
-  <si>
-    <t>Extremamente Pequeno, Pequeno, Prático, Consideravelmente Grande, Enorme, Muito Enorme, Tamanho Monstruoso, Maior Que Um Homem, Tamanho Lendário, Mais Pesado Que Um Elefante</t>
-  </si>
-  <si>
-    <t>Novato, Aprendiz, Profissional, Veterano, Especialista, Mestre, Grande Mestre</t>
-  </si>
-  <si>
-    <t>Percepção Aguçada, Percepção Limitada</t>
-  </si>
-  <si>
-    <t>Poderoso, Fraco</t>
-  </si>
-  <si>
-    <t>Nenhum, Normal, Forte, Excelente, Imune, Imune+</t>
+    <t>Fácil,Normal,Difícil,Impossível</t>
+  </si>
+  <si>
+    <t>Um,Uma</t>
+  </si>
+  <si>
+    <t>Janeiro,Fevereiro,Março,Abril,Maio,Junho,Julho,Agosto,Setembro,Outubro,Novembro,Dezembro</t>
+  </si>
+  <si>
+    <t>January,February,March,April,May,June,July,August,September,October,November,December</t>
+  </si>
+  <si>
+    <t>Primavera,Verão,Outono,Inverno</t>
+  </si>
+  <si>
+    <t>Prim,Ver,Out,Inv</t>
+  </si>
+  <si>
+    <t>???,Feminino,Masculino</t>
+  </si>
+  <si>
+    <t>Menina,Menina,Menino</t>
+  </si>
+  <si>
+    <t>Irmão,Mano,Garoto</t>
+  </si>
+  <si>
+    <t>Irmã,Mana,Garota</t>
+  </si>
+  <si>
+    <t>Aleatório,Criança,Jovem,Adulto,Idoso</t>
+  </si>
+  <si>
+    <t>...,Umimyaa,Não Consigo Dormir Esta Noite</t>
+  </si>
+  <si>
+    <t>Inimigo,Ódio,Irritante,Normal,Aprovado,Amigável,Respeitado,Íntimo,Afetuoso,*Amor*,*Amor Amor*</t>
+  </si>
+  <si>
+    <t>Poção Malhada,Poção Nublada,Poção Clara,Poção Turva,Poção Pálida,Poção Pegajosa,Poção Borbulhante</t>
+  </si>
+  <si>
+    <t>Pergaminho Antigo,Pergaminho Estranho,Pergaminho Rúnico,Pergaminho Longo,Pergaminho Rasgado</t>
+  </si>
+  <si>
+    <t>Livro Suspeito,Livro Fino,Livro Leve,Livro Atraente,Livro Chamativo,Livro Brilhante,Livro Preocupante,Livro Majestoso,Livro Pesado</t>
+  </si>
+  <si>
+    <t>Tomo Antigo,Tomo Estranho,Tomo Rúnico,Tomo Grosso,Tomo Majestoso</t>
+  </si>
+  <si>
+    <t>Bastão Curto,Bastão Longo,Bastão Torto,Bastão Grosso,Bastão Fino,Bastão Pesado,Bastão Incomum,Bastão Elegante,Bastão Simples</t>
+  </si>
+  <si>
+    <t>*Crunch*,*Scritch*,*Kisssh*,*Thudd*,*Clump*</t>
+  </si>
+  <si>
+    <t>*Drip*,*Sip*,*Drizzle*,*Splash*,*Kissh*</t>
+  </si>
+  <si>
+    <t>*Pling♪*,*Zing♪*,*Plunk♪*,*Chika Chika♪*,*Ta Ra Ra♪*</t>
+  </si>
+  <si>
+    <t>Corte(s),Corte(s),Corte(s),Corte(s)</t>
+  </si>
+  <si>
+    <t>Estocada(s),Estocada(s),Estocada(s),Estocada(s)</t>
+  </si>
+  <si>
+    <t>Esmagar(es),Esmagar(es),Esmagar(es),Esmagar(es)</t>
+  </si>
+  <si>
+    <t>Zap(s),Zap(s),Zap(s),Zap(s)</t>
+  </si>
+  <si>
+    <t>Lançar Fogo Em,Lançar Fogo Em,Lançar Fogo Em,Lançar Fogo Em</t>
+  </si>
+  <si>
+    <t>Atirar(s),Atirar(s),Atirar(s),Atirar(s)</t>
+  </si>
+  <si>
+    <t>Socar(es),Socar(es),Socar(es),Socar(es),Mão</t>
+  </si>
+  <si>
+    <t>Chute(s),Chute(s),Chute(s),Chute(s),Perna</t>
+  </si>
+  <si>
+    <t>Garra(s),Garra(s),Garra(s),Garra(s),Garra</t>
+  </si>
+  <si>
+    <t>Mordida(s),Mordida(s),Mordida(s),Mordida(s),Presa</t>
+  </si>
+  <si>
+    <t>Espalhar(es) Esporos Em,Espalhar(es) Esporos Em,Espalhar(es) Esporos Em,Espalhar(es) Esporos Em,Esporos</t>
+  </si>
+  <si>
+    <t>Olhar(es),Olhar(es),Olhar(es),Olhar(es),Olho</t>
+  </si>
+  <si>
+    <t>Picada(s),Picada(s),Picada(s),Picada(s),Agulha</t>
+  </si>
+  <si>
+    <t>Tocar(es),Tocar(es),Tocar(es),Tocar(es),Mão</t>
+  </si>
+  <si>
+    <t>Enfurecido,Descontente,Mal-Humorado,Calmo,Satisfeito,Encantado,Exultante</t>
+  </si>
+  <si>
+    <t>Irmão♪,Irmão-chan!,Irmãoichan♪,Irmão-chan,Irmão-chan?,Irmão-chan!?</t>
+  </si>
+  <si>
+    <t>Irmã♪,Irmã-chan!,Irmãichan♪,Irmã-chan,Irmã-chan?,Irmã-chan!?</t>
+  </si>
+  <si>
+    <t>Conhecido,Vizinho,Amigo,Gato,Cachorro,Leão-Marinho Glutão,Putit,Colega,Frango,Mascote</t>
+  </si>
+  <si>
+    <t>Amigo,Parente,Amante,Irmã,Irmão,Esposa,Chefe,Noiva,Querido,Mamãe,Papai,Gato,Criança</t>
+  </si>
+  <si>
+    <t>Amigo,Magnata,Nobre,Comerciante,Erudito,Aventureiro,Contrabandista,Revendedor</t>
+  </si>
+  <si>
+    <t>Nenhum,Normal,Forte,Excelente,Imune,Imune+</t>
+  </si>
+  <si>
+    <t>Nenhum,Fraqueza,Defeito</t>
+  </si>
+  <si>
+    <t>Escolha Um Local De Retorno,,,Nome Do Local,Nível De Retorno</t>
+  </si>
+  <si>
+    <t>Escolha Um Encantamento Para Extrair,,,Nome Do Encantamento,Nível</t>
+  </si>
+  <si>
+    <t>Escolha Uma Habilidade Para Treinar,,,Nome Da Habilidade,Custo Em Moedas De Platina</t>
+  </si>
+  <si>
+    <t>Escolha Uma Receita,,,Nome Da Receita,Possuída,Habilidade De Artesanato</t>
+  </si>
+  <si>
+    <t>Escolha Um Escravo,,,Nome Da Criatura,Preço,Trabalho</t>
+  </si>
+  <si>
+    <t>Escolha Um Aliado Para Reviver,,,Nome Do Aliado,Preço,Classe</t>
+  </si>
+  <si>
+    <t>Escolha Um Aliado Para Chamar,,,Nome Do Aliado,Interação,Classe</t>
+  </si>
+  <si>
+    <t>,,,Nome Do Aliado,Interação,Informação</t>
+  </si>
+  <si>
+    <t>,,,Nome Do Aliado,Nota</t>
+  </si>
+  <si>
+    <t>Escolha Uma Música,,,Nome Da Música,Interação</t>
+  </si>
+  <si>
+    <t>Playlist Atual,,,Nome Da Música,Interação</t>
+  </si>
+  <si>
+    <t>Músicas Na Memória,,,Nome Da Música,Interação</t>
+  </si>
+  <si>
+    <t>Escolha Um Destino Para Viagem Rápida,,,Nome Do Destino,Dias,Ração Requerida</t>
+  </si>
+  <si>
+    <t>Caranguejo Rei,Atum Bluefin,Lagosta Espinhosa,Amêijoa Oriental Comum,Ouriço-Do-Mar,Pepino-Do-Mar</t>
+  </si>
+  <si>
+    <t>Miau Miau Miau!,Miau Miau!,Miau.,Chato.,Cuidado!,(Pssst...)</t>
+  </si>
+  <si>
+    <t>Libere-Os...!,Nossas Espadas...!,Minha Espada...!,Meu Amigo...,Minha Alma...,Meu Orgulho...,Por Favor... A Espada...,Esperamos Por Tanto Tempo...,Minha Espada Que Foi Atada Por Ele...,Minha Espada Que Foi Roubada Por Ele...,Minha Espada...,A Espada...,Você... Libertou Minha Espada...?,Quem É...?</t>
+  </si>
+  <si>
+    <t>Estúpido,Sem Graça,Legal,Favorito Da Madame,Enfeitiçado,Maniaco,Estimado,Magnífico,Real,Obra-Prima,Celestial,Divino</t>
+  </si>
+  <si>
+    <t>Manuscrito Voynich,Cânticos Dhol,Escritura De Ponape,Revelações De Glaaki,Fragmentos De G'harne,Liber Damnatus,Livro De Dzyan,Livro De Eibon,Grande Grimório,Fragmentos De Celaeno,Necronomicon,O Texto De R'lyeh,Fragmentos De Eltdown,O Ramo Dourado,Apocalipse</t>
+  </si>
+  <si>
+    <t>É Uma Perda De Tempo.,Quase Todos Te Ignoram.,Você Precisa Praticar Muito Mais.,Você Terminou De Jogar.,Não É Bom.,As Pessoas Parecem Gostar Da Sua Performance.,Sua Performance É Um Sucesso.,Maravilhoso!,Excelente Performance.,Um Palco Lendário!</t>
+  </si>
+  <si>
+    <t>Poderoso,Fraco</t>
+  </si>
+  <si>
+    <t>Fortificado,Frágil</t>
+  </si>
+  <si>
+    <t>Ágil,Desajeitado</t>
+  </si>
+  <si>
+    <t>Percepção Aguçada,Percepção Limitada</t>
+  </si>
+  <si>
+    <t>Iluminado,Prejudicado</t>
+  </si>
+  <si>
+    <t>Inflexível,Subjugado</t>
+  </si>
+  <si>
+    <t>Magia Amplificada,Magia Drenada</t>
+  </si>
+  <si>
+    <t>Alegre,Sombrio</t>
+  </si>
+  <si>
+    <t>Sortudo,Amaldiçoado</t>
+  </si>
+  <si>
+    <t>Acelerado,Lento</t>
+  </si>
+  <si>
+    <t>Bruto,Normal,Bom,Milagroso,Divino,Especial</t>
+  </si>
+  <si>
+    <t>Desgastado,Qualidade Comum,Qualidade Razoável,Qualidade Fina,Qualidade Premium,Qualidade Real</t>
+  </si>
+  <si>
+    <t>,Qualidade,Puro,Fabuloso</t>
+  </si>
+  <si>
+    <t>-,Amador,Novato,Aprendiz,Profissional,Especialista,Versado,Mestre,Grande Mestre</t>
+  </si>
+  <si>
+    <t>Mínimo,Baixo,Normal,Alto,Máximo</t>
+  </si>
+  <si>
+    <t>Uma Noite No Prado,Uma Noite No Prado (Inverno)(Teste),Em Uma Caverna (Teste)</t>
+  </si>
+  <si>
+    <t>Novato,Aprendiz,Profissional,Veterano,Especialista,Mestre,Grande Mestre</t>
+  </si>
+  <si>
+    <t>Extremamente Pequeno,Pequeno,Prático,Consideravelmente Grande,Enorme,Muito Enorme,Tamanho Monstruoso,Maior Que Um Homem,Tamanho Lendário,Mais Pesado Que Um Elefante</t>
+  </si>
+  <si>
+    <t>Th,St,Nd,Rd</t>
+  </si>
+  <si>
+    <t>Recém-Crescido,Levemente Fofo,Quase Fofo,Fofo</t>
+  </si>
+  <si>
+    <t>Conta,Imposto,Treinador,Guarda</t>
+  </si>
+  <si>
+    <t>Perder,3º Prêmio,2º Prêmio,1º Prêmio</t>
+  </si>
+  <si>
+    <t>Aventureiro Novato,Aventureiro,Aventureiro Veterano,Personalizado</t>
+  </si>
+  <si>
+    <t>Aventureiro Legado,Aventureiro Novato,Aventureiro,Aventureiro Veterano,Aventureiro Lendário,Aventureiro Mítico</t>
+  </si>
+  <si>
+    <t>Barril♪,Barril!,Barril!,Barril.</t>
+  </si>
+  <si>
+    <t>Sem Chance,Forte,Briga Justa,Fraco,Muito Fraco</t>
   </si>
 </sst>
 </file>
@@ -1738,8 +1738,8 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1747,7 @@
     <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="243.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="225.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,10 +1775,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1789,1891 +1789,1891 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" t="s">
-        <v>356</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>314</v>
-      </c>
-      <c r="D11" t="s">
-        <v>357</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>368</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>358</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D13" t="s">
-        <v>359</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>314</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>360</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>372</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>361</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>362</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>363</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
-        <v>314</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>364</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>54</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>375</v>
+      </c>
+      <c r="E20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>365</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>376</v>
+      </c>
+      <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>366</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>60</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
-        <v>318</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>367</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
-        <v>314</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>368</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
-        <v>320</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>369</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>69</v>
-      </c>
-      <c r="F24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>379</v>
+      </c>
+      <c r="E25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>370</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>72</v>
-      </c>
-      <c r="F25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>380</v>
+      </c>
+      <c r="E26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
-        <v>320</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>75</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
-        <v>321</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>372</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>382</v>
+      </c>
+      <c r="E28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
-        <v>320</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>373</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>383</v>
+      </c>
+      <c r="E29" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
-        <v>320</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>374</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>84</v>
-      </c>
-      <c r="F29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>384</v>
+      </c>
+      <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" t="s">
-        <v>320</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>375</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>87</v>
-      </c>
-      <c r="F30" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>385</v>
+      </c>
+      <c r="E31" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
-        <v>320</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>376</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>90</v>
-      </c>
-      <c r="F31" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>386</v>
+      </c>
+      <c r="E32" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
-        <v>320</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>377</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>93</v>
-      </c>
-      <c r="F32" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
-        <v>320</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>378</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>96</v>
-      </c>
-      <c r="F33" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>388</v>
+      </c>
+      <c r="E34" t="s">
         <v>98</v>
       </c>
-      <c r="B34" t="s">
-        <v>315</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>379</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>99</v>
-      </c>
-      <c r="F34" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>389</v>
+      </c>
+      <c r="E35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
-        <v>320</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" t="s">
-        <v>380</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>102</v>
-      </c>
-      <c r="F35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
-        <v>320</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" t="s">
-        <v>381</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>105</v>
-      </c>
-      <c r="F36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>391</v>
+      </c>
+      <c r="E37" t="s">
         <v>107</v>
       </c>
-      <c r="B37" t="s">
-        <v>320</v>
-      </c>
-      <c r="C37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" t="s">
-        <v>382</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>108</v>
-      </c>
-      <c r="F37" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" t="s">
         <v>110</v>
       </c>
-      <c r="B38" t="s">
-        <v>314</v>
-      </c>
-      <c r="D38" t="s">
-        <v>383</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>111</v>
-      </c>
-      <c r="F38" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" t="s">
+        <v>392</v>
+      </c>
+      <c r="E39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
-        <v>313</v>
-      </c>
-      <c r="D39" t="s">
-        <v>384</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>114</v>
-      </c>
-      <c r="F39" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D40" t="s">
+        <v>336</v>
+      </c>
+      <c r="E40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
-        <v>314</v>
-      </c>
-      <c r="D40" t="s">
-        <v>337</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>117</v>
-      </c>
-      <c r="F40" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>313</v>
+      </c>
+      <c r="D41" t="s">
+        <v>337</v>
+      </c>
+      <c r="E41" t="s">
         <v>119</v>
       </c>
-      <c r="B41" t="s">
-        <v>314</v>
-      </c>
-      <c r="D41" t="s">
-        <v>338</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>120</v>
-      </c>
-      <c r="F41" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D42" t="s">
+        <v>348</v>
+      </c>
+      <c r="E42" t="s">
         <v>122</v>
       </c>
-      <c r="B42" t="s">
-        <v>314</v>
-      </c>
-      <c r="D42" t="s">
-        <v>385</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>123</v>
-      </c>
-      <c r="F42" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>313</v>
+      </c>
+      <c r="D43" t="s">
+        <v>338</v>
+      </c>
+      <c r="E43" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
-        <v>314</v>
-      </c>
-      <c r="D43" t="s">
-        <v>339</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>126</v>
-      </c>
-      <c r="F43" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" t="s">
+        <v>349</v>
+      </c>
+      <c r="E44" t="s">
         <v>128</v>
       </c>
-      <c r="B44" t="s">
-        <v>314</v>
-      </c>
-      <c r="D44" t="s">
-        <v>386</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>129</v>
-      </c>
-      <c r="F44" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D45" t="s">
+        <v>339</v>
+      </c>
+      <c r="E45" t="s">
         <v>131</v>
       </c>
-      <c r="B45" t="s">
-        <v>314</v>
-      </c>
-      <c r="D45" t="s">
-        <v>340</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>132</v>
-      </c>
-      <c r="F45" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>313</v>
+      </c>
+      <c r="D46" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" t="s">
         <v>134</v>
       </c>
-      <c r="B46" t="s">
-        <v>314</v>
-      </c>
-      <c r="D46" t="s">
-        <v>341</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>135</v>
-      </c>
-      <c r="F46" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>321</v>
+      </c>
+      <c r="D47" t="s">
+        <v>393</v>
+      </c>
+      <c r="E47" t="s">
         <v>137</v>
       </c>
-      <c r="B47" t="s">
-        <v>322</v>
-      </c>
-      <c r="D47" t="s">
-        <v>387</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>138</v>
-      </c>
-      <c r="F47" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>321</v>
+      </c>
+      <c r="D48" t="s">
+        <v>394</v>
+      </c>
+      <c r="E48" t="s">
         <v>140</v>
       </c>
-      <c r="B48" t="s">
-        <v>322</v>
-      </c>
-      <c r="D48" t="s">
-        <v>388</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>141</v>
-      </c>
-      <c r="F48" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" t="s">
+        <v>395</v>
+      </c>
+      <c r="E49" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
-        <v>323</v>
-      </c>
-      <c r="D49" t="s">
-        <v>389</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>144</v>
-      </c>
-      <c r="F49" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>323</v>
+      </c>
+      <c r="D50" t="s">
+        <v>396</v>
+      </c>
+      <c r="E50" t="s">
         <v>146</v>
       </c>
-      <c r="B50" t="s">
-        <v>324</v>
-      </c>
-      <c r="D50" t="s">
-        <v>390</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>147</v>
-      </c>
-      <c r="F50" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" t="s">
+        <v>397</v>
+      </c>
+      <c r="E51" t="s">
         <v>149</v>
       </c>
-      <c r="B51" t="s">
-        <v>324</v>
-      </c>
-      <c r="D51" t="s">
-        <v>391</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>150</v>
-      </c>
-      <c r="F51" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>324</v>
+      </c>
+      <c r="D52" t="s">
+        <v>398</v>
+      </c>
+      <c r="E52" t="s">
         <v>152</v>
       </c>
-      <c r="B52" t="s">
-        <v>325</v>
-      </c>
-      <c r="D52" t="s">
-        <v>444</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>153</v>
-      </c>
-      <c r="F52" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" t="s">
+        <v>399</v>
+      </c>
+      <c r="E53" t="s">
         <v>155</v>
       </c>
-      <c r="B53" t="s">
-        <v>314</v>
-      </c>
-      <c r="D53" t="s">
-        <v>392</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>156</v>
-      </c>
-      <c r="F53" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" t="s">
+        <v>313</v>
+      </c>
+      <c r="C54" t="s">
         <v>158</v>
       </c>
-      <c r="B54" t="s">
-        <v>314</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>350</v>
+      </c>
+      <c r="E54" t="s">
         <v>159</v>
       </c>
-      <c r="D54" t="s">
-        <v>393</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>160</v>
-      </c>
-      <c r="F54" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
+        <v>313</v>
+      </c>
+      <c r="C55" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" t="s">
+        <v>351</v>
+      </c>
+      <c r="E55" t="s">
         <v>162</v>
       </c>
-      <c r="B55" t="s">
-        <v>314</v>
-      </c>
-      <c r="C55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" t="s">
-        <v>394</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>163</v>
-      </c>
-      <c r="F55" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>352</v>
+      </c>
+      <c r="E56" t="s">
         <v>165</v>
       </c>
-      <c r="B56" t="s">
-        <v>314</v>
-      </c>
-      <c r="C56" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" t="s">
-        <v>395</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>166</v>
-      </c>
-      <c r="F56" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>353</v>
+      </c>
+      <c r="E57" t="s">
         <v>168</v>
       </c>
-      <c r="B57" t="s">
-        <v>314</v>
-      </c>
-      <c r="C57" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" t="s">
-        <v>396</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>169</v>
-      </c>
-      <c r="F57" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" t="s">
+        <v>354</v>
+      </c>
+      <c r="E58" t="s">
         <v>171</v>
       </c>
-      <c r="B58" t="s">
-        <v>326</v>
-      </c>
-      <c r="C58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" t="s">
-        <v>397</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>172</v>
-      </c>
-      <c r="F58" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>355</v>
+      </c>
+      <c r="E59" t="s">
         <v>174</v>
       </c>
-      <c r="B59" t="s">
-        <v>327</v>
-      </c>
-      <c r="C59" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" t="s">
-        <v>398</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>175</v>
-      </c>
-      <c r="F59" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" t="s">
+        <v>356</v>
+      </c>
+      <c r="E60" t="s">
         <v>177</v>
       </c>
-      <c r="B60" t="s">
-        <v>314</v>
-      </c>
-      <c r="C60" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" t="s">
-        <v>399</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>178</v>
-      </c>
-      <c r="F60" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
         <v>400</v>
       </c>
       <c r="E61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" t="s">
         <v>181</v>
-      </c>
-      <c r="F61" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
         <v>401</v>
       </c>
       <c r="E62" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" t="s">
         <v>184</v>
-      </c>
-      <c r="F62" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
         <v>402</v>
       </c>
       <c r="E63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" t="s">
         <v>187</v>
-      </c>
-      <c r="F63" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D64" t="s">
         <v>403</v>
       </c>
       <c r="E64" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" t="s">
         <v>190</v>
-      </c>
-      <c r="F64" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
         <v>404</v>
       </c>
       <c r="E65" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" t="s">
         <v>193</v>
-      </c>
-      <c r="F65" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
         <v>405</v>
       </c>
       <c r="E66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F66" t="s">
         <v>196</v>
-      </c>
-      <c r="F66" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
         <v>406</v>
       </c>
       <c r="E67" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" t="s">
         <v>199</v>
-      </c>
-      <c r="F67" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" t="s">
         <v>407</v>
       </c>
       <c r="E68" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" t="s">
         <v>202</v>
-      </c>
-      <c r="F68" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s">
         <v>408</v>
       </c>
       <c r="E69" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" t="s">
         <v>205</v>
-      </c>
-      <c r="F69" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D70" t="s">
         <v>408</v>
       </c>
       <c r="E70" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" t="s">
         <v>205</v>
-      </c>
-      <c r="F70" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D71" t="s">
         <v>409</v>
       </c>
       <c r="E71" t="s">
+        <v>208</v>
+      </c>
+      <c r="F71" t="s">
         <v>209</v>
-      </c>
-      <c r="F71" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D72" t="s">
         <v>410</v>
       </c>
       <c r="E72" t="s">
+        <v>211</v>
+      </c>
+      <c r="F72" t="s">
         <v>212</v>
-      </c>
-      <c r="F72" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
         <v>411</v>
       </c>
       <c r="E73" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" t="s">
         <v>215</v>
-      </c>
-      <c r="F73" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
         <v>412</v>
       </c>
       <c r="E74" t="s">
+        <v>217</v>
+      </c>
+      <c r="F74" t="s">
         <v>218</v>
-      </c>
-      <c r="F74" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D75" t="s">
         <v>413</v>
       </c>
       <c r="E75" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" t="s">
         <v>221</v>
-      </c>
-      <c r="F75" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D76" t="s">
         <v>414</v>
       </c>
       <c r="E76" t="s">
+        <v>223</v>
+      </c>
+      <c r="F76" t="s">
         <v>224</v>
-      </c>
-      <c r="F76" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D77" t="s">
         <v>415</v>
       </c>
       <c r="E77" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" t="s">
         <v>227</v>
-      </c>
-      <c r="F77" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D78" t="s">
         <v>416</v>
       </c>
       <c r="E78" t="s">
+        <v>229</v>
+      </c>
+      <c r="F78" t="s">
         <v>230</v>
-      </c>
-      <c r="F78" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D79" t="s">
         <v>417</v>
       </c>
       <c r="E79" t="s">
+        <v>232</v>
+      </c>
+      <c r="F79" t="s">
         <v>233</v>
-      </c>
-      <c r="F79" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D80" t="s">
         <v>418</v>
       </c>
       <c r="E80" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" t="s">
         <v>236</v>
-      </c>
-      <c r="F80" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" t="s">
+        <v>324</v>
+      </c>
+      <c r="D81" t="s">
+        <v>419</v>
+      </c>
+      <c r="E81" t="s">
         <v>238</v>
       </c>
-      <c r="B81" t="s">
-        <v>325</v>
-      </c>
-      <c r="D81" t="s">
-        <v>443</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>239</v>
-      </c>
-      <c r="F81" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="D82" t="s">
+        <v>420</v>
+      </c>
+      <c r="E82" t="s">
         <v>241</v>
       </c>
-      <c r="B82" t="s">
-        <v>325</v>
-      </c>
-      <c r="D82" t="s">
-        <v>419</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>242</v>
-      </c>
-      <c r="F82" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" t="s">
+        <v>324</v>
+      </c>
+      <c r="D83" t="s">
+        <v>421</v>
+      </c>
+      <c r="E83" t="s">
         <v>244</v>
       </c>
-      <c r="B83" t="s">
-        <v>325</v>
-      </c>
-      <c r="D83" t="s">
-        <v>420</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>245</v>
-      </c>
-      <c r="F83" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" t="s">
+        <v>324</v>
+      </c>
+      <c r="D84" t="s">
+        <v>422</v>
+      </c>
+      <c r="E84" t="s">
         <v>247</v>
       </c>
-      <c r="B84" t="s">
-        <v>325</v>
-      </c>
-      <c r="D84" t="s">
-        <v>442</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>248</v>
-      </c>
-      <c r="F84" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" t="s">
+        <v>324</v>
+      </c>
+      <c r="D85" t="s">
+        <v>423</v>
+      </c>
+      <c r="E85" t="s">
         <v>250</v>
       </c>
-      <c r="B85" t="s">
-        <v>325</v>
-      </c>
-      <c r="D85" t="s">
-        <v>421</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>251</v>
-      </c>
-      <c r="F85" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" t="s">
+        <v>424</v>
+      </c>
+      <c r="E86" t="s">
         <v>253</v>
       </c>
-      <c r="B86" t="s">
-        <v>325</v>
-      </c>
-      <c r="D86" t="s">
-        <v>422</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>254</v>
-      </c>
-      <c r="F86" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>324</v>
+      </c>
+      <c r="D87" t="s">
+        <v>425</v>
+      </c>
+      <c r="E87" t="s">
         <v>256</v>
       </c>
-      <c r="B87" t="s">
-        <v>325</v>
-      </c>
-      <c r="D87" t="s">
-        <v>423</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>257</v>
-      </c>
-      <c r="F87" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>324</v>
+      </c>
+      <c r="D88" t="s">
+        <v>426</v>
+      </c>
+      <c r="E88" t="s">
         <v>259</v>
       </c>
-      <c r="B88" t="s">
-        <v>325</v>
-      </c>
-      <c r="D88" t="s">
-        <v>424</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>260</v>
-      </c>
-      <c r="F88" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" t="s">
+        <v>324</v>
+      </c>
+      <c r="D89" t="s">
+        <v>427</v>
+      </c>
+      <c r="E89" t="s">
         <v>262</v>
       </c>
-      <c r="B89" t="s">
-        <v>325</v>
-      </c>
-      <c r="D89" t="s">
-        <v>425</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>263</v>
-      </c>
-      <c r="F89" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" t="s">
+        <v>428</v>
+      </c>
+      <c r="E90" t="s">
         <v>265</v>
       </c>
-      <c r="B90" t="s">
-        <v>325</v>
-      </c>
-      <c r="D90" t="s">
-        <v>426</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>266</v>
-      </c>
-      <c r="F90" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" t="s">
+        <v>324</v>
+      </c>
+      <c r="D91" t="s">
+        <v>429</v>
+      </c>
+      <c r="E91" t="s">
         <v>268</v>
       </c>
-      <c r="B91" t="s">
-        <v>325</v>
-      </c>
-      <c r="D91" t="s">
-        <v>427</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>269</v>
-      </c>
-      <c r="F91" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" t="s">
+        <v>430</v>
+      </c>
+      <c r="E92" t="s">
         <v>271</v>
       </c>
-      <c r="B92" t="s">
-        <v>319</v>
-      </c>
-      <c r="D92" t="s">
-        <v>428</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>272</v>
-      </c>
-      <c r="F92" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" t="s">
+        <v>431</v>
+      </c>
+      <c r="E93" t="s">
         <v>274</v>
       </c>
-      <c r="B93" t="s">
-        <v>319</v>
-      </c>
-      <c r="D93" t="s">
-        <v>429</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>275</v>
-      </c>
-      <c r="F93" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" t="s">
+        <v>326</v>
+      </c>
+      <c r="D94" t="s">
+        <v>432</v>
+      </c>
+      <c r="E94" t="s">
         <v>277</v>
       </c>
-      <c r="B94" t="s">
-        <v>327</v>
-      </c>
-      <c r="D94" t="s">
-        <v>430</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>278</v>
-      </c>
-      <c r="F94" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" t="s">
+        <v>326</v>
+      </c>
+      <c r="D95" t="s">
+        <v>433</v>
+      </c>
+      <c r="E95" t="s">
         <v>280</v>
       </c>
-      <c r="B95" t="s">
-        <v>327</v>
-      </c>
-      <c r="D95" t="s">
-        <v>431</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>281</v>
-      </c>
-      <c r="F95" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>282</v>
+      </c>
+      <c r="B96" t="s">
+        <v>332</v>
+      </c>
+      <c r="D96" t="s">
+        <v>434</v>
+      </c>
+      <c r="E96" t="s">
         <v>283</v>
       </c>
-      <c r="B96" t="s">
-        <v>333</v>
-      </c>
-      <c r="D96" t="s">
-        <v>432</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>284</v>
-      </c>
-      <c r="F96" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" t="s">
+        <v>328</v>
+      </c>
+      <c r="C97" t="s">
         <v>286</v>
       </c>
-      <c r="B97" t="s">
-        <v>329</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>341</v>
+      </c>
+      <c r="E97" t="s">
         <v>287</v>
       </c>
-      <c r="D97" t="s">
-        <v>342</v>
-      </c>
-      <c r="E97" t="s">
-        <v>288</v>
-      </c>
       <c r="F97" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" t="s">
+        <v>323</v>
+      </c>
+      <c r="D98" t="s">
+        <v>435</v>
+      </c>
+      <c r="E98" t="s">
         <v>289</v>
       </c>
-      <c r="B98" t="s">
-        <v>324</v>
-      </c>
-      <c r="D98" t="s">
-        <v>441</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>290</v>
-      </c>
-      <c r="F98" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>291</v>
+      </c>
+      <c r="B99" t="s">
+        <v>323</v>
+      </c>
+      <c r="D99" t="s">
+        <v>436</v>
+      </c>
+      <c r="E99" t="s">
         <v>292</v>
       </c>
-      <c r="B99" t="s">
-        <v>324</v>
-      </c>
-      <c r="D99" t="s">
-        <v>440</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>293</v>
-      </c>
-      <c r="F99" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" t="s">
+        <v>323</v>
+      </c>
+      <c r="D100" t="s">
+        <v>437</v>
+      </c>
+      <c r="E100" t="s">
         <v>295</v>
       </c>
-      <c r="B100" t="s">
-        <v>324</v>
-      </c>
-      <c r="D100" t="s">
-        <v>433</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>296</v>
-      </c>
-      <c r="F100" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>297</v>
+      </c>
+      <c r="B101" t="s">
+        <v>333</v>
+      </c>
+      <c r="D101" t="s">
+        <v>438</v>
+      </c>
+      <c r="E101" t="s">
         <v>298</v>
       </c>
-      <c r="B101" t="s">
-        <v>334</v>
-      </c>
-      <c r="D101" t="s">
-        <v>434</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>299</v>
-      </c>
-      <c r="F101" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" t="s">
+        <v>331</v>
+      </c>
+      <c r="D102" t="s">
+        <v>439</v>
+      </c>
+      <c r="E102" t="s">
         <v>301</v>
       </c>
-      <c r="B102" t="s">
-        <v>332</v>
-      </c>
-      <c r="D102" t="s">
-        <v>435</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>302</v>
-      </c>
-      <c r="F102" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>303</v>
+      </c>
+      <c r="B103" t="s">
+        <v>334</v>
+      </c>
+      <c r="D103" t="s">
+        <v>440</v>
+      </c>
+      <c r="E103" t="s">
         <v>304</v>
       </c>
-      <c r="B103" t="s">
-        <v>335</v>
-      </c>
-      <c r="D103" t="s">
-        <v>436</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>305</v>
-      </c>
-      <c r="F103" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>306</v>
+      </c>
+      <c r="B104" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104" t="s">
+        <v>441</v>
+      </c>
+      <c r="E104" t="s">
         <v>307</v>
       </c>
-      <c r="B104" t="s">
-        <v>336</v>
-      </c>
-      <c r="D104" t="s">
-        <v>437</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>308</v>
-      </c>
-      <c r="F104" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>309</v>
+      </c>
+      <c r="B105" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" t="s">
+        <v>442</v>
+      </c>
+      <c r="E105" t="s">
         <v>310</v>
       </c>
-      <c r="B105" t="s">
-        <v>336</v>
-      </c>
-      <c r="D105" t="s">
-        <v>438</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>311</v>
-      </c>
-      <c r="F105" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>342</v>
+      </c>
+      <c r="B106" t="s">
         <v>343</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
+        <v>443</v>
+      </c>
+      <c r="E106" t="s">
         <v>344</v>
       </c>
-      <c r="D106" t="s">
-        <v>439</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>345</v>
-      </c>
-      <c r="F106" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/Traduzido/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6FA83F-5C8D-4351-957F-A4CB782C174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA67E1-A764-460B-9CF1-2772754BDFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -1129,9 +1129,6 @@
     <t>Aleatório,Criança,Jovem,Adulto,Idoso</t>
   </si>
   <si>
-    <t>...,Umimyaa,Não Consigo Dormir Esta Noite</t>
-  </si>
-  <si>
     <t>Inimigo,Ódio,Irritante,Normal,Aprovado,Amigável,Respeitado,Íntimo,Afetuoso,*Amor*,*Amor Amor*</t>
   </si>
   <si>
@@ -1234,9 +1231,6 @@
     <t>Escolha Uma Habilidade Para Treinar,,,Nome Da Habilidade,Custo Em Moedas De Platina</t>
   </si>
   <si>
-    <t>Escolha Uma Receita,,,Nome Da Receita,Possuída,Habilidade De Artesanato</t>
-  </si>
-  <si>
     <t>Escolha Um Escravo,,,Nome Da Criatura,Preço,Trabalho</t>
   </si>
   <si>
@@ -1358,6 +1352,12 @@
   </si>
   <si>
     <t>Sem Chance,Forte,Briga Justa,Fraco,Muito Fraco</t>
+  </si>
+  <si>
+    <t>「Escolha uma Receita」,,,Nome Da Receita,Possuí,Habilidade De Artesanato</t>
+  </si>
+  <si>
+    <t>...,Umimyaa,Não Consigo Dormir Esta Noite,Porquê eu fui brigar…,Era só pra cortar uma madeia…,Antes morto do que sem vida, Prefiro morrer do que perder a vida</t>
   </si>
 </sst>
 </file>
@@ -1738,8 +1738,8 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1931,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>368</v>
+        <v>444</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -1948,7 +1948,7 @@
         <v>316</v>
       </c>
       <c r="D13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
@@ -1968,7 +1968,7 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
@@ -1988,7 +1988,7 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
@@ -2008,7 +2008,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -2028,7 +2028,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -2048,7 +2048,7 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E18" t="s">
         <v>50</v>
@@ -2088,7 +2088,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E20" t="s">
         <v>56</v>
@@ -2108,7 +2108,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E21" t="s">
         <v>59</v>
@@ -2128,7 +2128,7 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E22" t="s">
         <v>62</v>
@@ -2148,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E23" t="s">
         <v>65</v>
@@ -2168,7 +2168,7 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E24" t="s">
         <v>68</v>
@@ -2188,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E25" t="s">
         <v>71</v>
@@ -2208,7 +2208,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
@@ -2228,7 +2228,7 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E27" t="s">
         <v>77</v>
@@ -2248,7 +2248,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E28" t="s">
         <v>80</v>
@@ -2268,7 +2268,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E29" t="s">
         <v>83</v>
@@ -2288,7 +2288,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E30" t="s">
         <v>86</v>
@@ -2308,7 +2308,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E31" t="s">
         <v>89</v>
@@ -2328,7 +2328,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E32" t="s">
         <v>92</v>
@@ -2348,7 +2348,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E33" t="s">
         <v>95</v>
@@ -2368,7 +2368,7 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E34" t="s">
         <v>98</v>
@@ -2388,7 +2388,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E35" t="s">
         <v>101</v>
@@ -2408,7 +2408,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E36" t="s">
         <v>104</v>
@@ -2428,7 +2428,7 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E37" t="s">
         <v>107</v>
@@ -2462,7 +2462,7 @@
         <v>312</v>
       </c>
       <c r="D39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E39" t="s">
         <v>113</v>
@@ -2598,7 +2598,7 @@
         <v>321</v>
       </c>
       <c r="D47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E47" t="s">
         <v>137</v>
@@ -2615,7 +2615,7 @@
         <v>321</v>
       </c>
       <c r="D48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E48" t="s">
         <v>140</v>
@@ -2632,7 +2632,7 @@
         <v>322</v>
       </c>
       <c r="D49" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E49" t="s">
         <v>143</v>
@@ -2649,7 +2649,7 @@
         <v>323</v>
       </c>
       <c r="D50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E50" t="s">
         <v>146</v>
@@ -2666,7 +2666,7 @@
         <v>323</v>
       </c>
       <c r="D51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E51" t="s">
         <v>149</v>
@@ -2683,7 +2683,7 @@
         <v>324</v>
       </c>
       <c r="D52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E52" t="s">
         <v>152</v>
@@ -2700,7 +2700,7 @@
         <v>313</v>
       </c>
       <c r="D53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E53" t="s">
         <v>155</v>
@@ -2860,7 +2860,7 @@
         <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E61" t="s">
         <v>180</v>
@@ -2880,7 +2880,7 @@
         <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E62" t="s">
         <v>183</v>
@@ -2900,7 +2900,7 @@
         <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E63" t="s">
         <v>186</v>
@@ -2920,7 +2920,7 @@
         <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="E64" t="s">
         <v>189</v>
@@ -2940,7 +2940,7 @@
         <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E65" t="s">
         <v>192</v>
@@ -2960,7 +2960,7 @@
         <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E66" t="s">
         <v>195</v>
@@ -2980,7 +2980,7 @@
         <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E67" t="s">
         <v>198</v>
@@ -3000,7 +3000,7 @@
         <v>158</v>
       </c>
       <c r="D68" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E68" t="s">
         <v>201</v>
@@ -3020,7 +3020,7 @@
         <v>158</v>
       </c>
       <c r="D69" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E69" t="s">
         <v>204</v>
@@ -3040,7 +3040,7 @@
         <v>158</v>
       </c>
       <c r="D70" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E70" t="s">
         <v>204</v>
@@ -3060,7 +3060,7 @@
         <v>158</v>
       </c>
       <c r="D71" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E71" t="s">
         <v>208</v>
@@ -3080,7 +3080,7 @@
         <v>158</v>
       </c>
       <c r="D72" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E72" t="s">
         <v>211</v>
@@ -3100,7 +3100,7 @@
         <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E73" t="s">
         <v>214</v>
@@ -3120,7 +3120,7 @@
         <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E74" t="s">
         <v>217</v>
@@ -3137,7 +3137,7 @@
         <v>326</v>
       </c>
       <c r="D75" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E75" t="s">
         <v>220</v>
@@ -3154,7 +3154,7 @@
         <v>315</v>
       </c>
       <c r="D76" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E76" t="s">
         <v>223</v>
@@ -3171,7 +3171,7 @@
         <v>317</v>
       </c>
       <c r="D77" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E77" t="s">
         <v>226</v>
@@ -3188,7 +3188,7 @@
         <v>317</v>
       </c>
       <c r="D78" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E78" t="s">
         <v>229</v>
@@ -3205,7 +3205,7 @@
         <v>317</v>
       </c>
       <c r="D79" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E79" t="s">
         <v>232</v>
@@ -3222,7 +3222,7 @@
         <v>324</v>
       </c>
       <c r="D80" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E80" t="s">
         <v>235</v>
@@ -3239,7 +3239,7 @@
         <v>324</v>
       </c>
       <c r="D81" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E81" t="s">
         <v>238</v>
@@ -3256,7 +3256,7 @@
         <v>324</v>
       </c>
       <c r="D82" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E82" t="s">
         <v>241</v>
@@ -3273,7 +3273,7 @@
         <v>324</v>
       </c>
       <c r="D83" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E83" t="s">
         <v>244</v>
@@ -3290,7 +3290,7 @@
         <v>324</v>
       </c>
       <c r="D84" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E84" t="s">
         <v>247</v>
@@ -3307,7 +3307,7 @@
         <v>324</v>
       </c>
       <c r="D85" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E85" t="s">
         <v>250</v>
@@ -3324,7 +3324,7 @@
         <v>324</v>
       </c>
       <c r="D86" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E86" t="s">
         <v>253</v>
@@ -3341,7 +3341,7 @@
         <v>324</v>
       </c>
       <c r="D87" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E87" t="s">
         <v>256</v>
@@ -3358,7 +3358,7 @@
         <v>324</v>
       </c>
       <c r="D88" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E88" t="s">
         <v>259</v>
@@ -3375,7 +3375,7 @@
         <v>324</v>
       </c>
       <c r="D89" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E89" t="s">
         <v>262</v>
@@ -3392,7 +3392,7 @@
         <v>324</v>
       </c>
       <c r="D90" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E90" t="s">
         <v>265</v>
@@ -3409,7 +3409,7 @@
         <v>324</v>
       </c>
       <c r="D91" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E91" t="s">
         <v>268</v>
@@ -3426,7 +3426,7 @@
         <v>318</v>
       </c>
       <c r="D92" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E92" t="s">
         <v>271</v>
@@ -3443,7 +3443,7 @@
         <v>318</v>
       </c>
       <c r="D93" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E93" t="s">
         <v>274</v>
@@ -3460,7 +3460,7 @@
         <v>326</v>
       </c>
       <c r="D94" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E94" t="s">
         <v>277</v>
@@ -3477,7 +3477,7 @@
         <v>326</v>
       </c>
       <c r="D95" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E95" t="s">
         <v>280</v>
@@ -3494,7 +3494,7 @@
         <v>332</v>
       </c>
       <c r="D96" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E96" t="s">
         <v>283</v>
@@ -3531,7 +3531,7 @@
         <v>323</v>
       </c>
       <c r="D98" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E98" t="s">
         <v>289</v>
@@ -3548,7 +3548,7 @@
         <v>323</v>
       </c>
       <c r="D99" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E99" t="s">
         <v>292</v>
@@ -3565,7 +3565,7 @@
         <v>323</v>
       </c>
       <c r="D100" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E100" t="s">
         <v>295</v>
@@ -3582,7 +3582,7 @@
         <v>333</v>
       </c>
       <c r="D101" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E101" t="s">
         <v>298</v>
@@ -3599,7 +3599,7 @@
         <v>331</v>
       </c>
       <c r="D102" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E102" t="s">
         <v>301</v>
@@ -3616,7 +3616,7 @@
         <v>334</v>
       </c>
       <c r="D103" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E103" t="s">
         <v>304</v>
@@ -3633,7 +3633,7 @@
         <v>335</v>
       </c>
       <c r="D104" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E104" t="s">
         <v>307</v>
@@ -3650,7 +3650,7 @@
         <v>335</v>
       </c>
       <c r="D105" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E105" t="s">
         <v>310</v>
@@ -3667,7 +3667,7 @@
         <v>343</v>
       </c>
       <c r="D106" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E106" t="s">
         <v>344</v>
